--- a/QT_VO2max_Data/Xining_VO2_QT_values_revisited_20June2019/VO2_Physioflow_Avg_Match_Watts_Dean/physioflow/23Sept2013_Xining_Physioflow_X9X13/X11 at 2200.xlsx
+++ b/QT_VO2max_Data/Xining_VO2_QT_values_revisited_20June2019/VO2_Physioflow_Avg_Match_Watts_Dean/physioflow/23Sept2013_Xining_Physioflow_X9X13/X11 at 2200.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="22995" windowHeight="10035"/>
+    <workbookView windowWidth="16391" windowHeight="5412"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -90,27 +90,6 @@
     <t xml:space="preserve"> Marks </t>
   </si>
   <si>
-    <t>rest at 2200</t>
-  </si>
-  <si>
-    <t>45w</t>
-  </si>
-  <si>
-    <t>90w</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>---------------</t>
-  </si>
-  <si>
-    <t>120W</t>
-  </si>
-  <si>
-    <t>105W</t>
-  </si>
-  <si>
     <t xml:space="preserve">Avg Hr </t>
   </si>
   <si>
@@ -156,34 +135,398 @@
     <t>Avg EDFR</t>
   </si>
   <si>
+    <t>rest at 2200</t>
+  </si>
+  <si>
+    <t>45w</t>
+  </si>
+  <si>
+    <t>90w</t>
+  </si>
+  <si>
     <t>submax</t>
   </si>
   <si>
+    <t>105W</t>
+  </si>
+  <si>
     <t>submax 2</t>
+  </si>
+  <si>
+    <t>120W</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>---------------</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -191,20 +534,309 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="35" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -212,6 +844,1324 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0496079240610813"/>
+          <c:y val="0.210575793184489"/>
+          <c:w val="0.908157930939607"/>
+          <c:h val="0.618660399529965"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$6:$A$83</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm:ss</c:formatCode>
+                <c:ptCount val="78"/>
+                <c:pt idx="0" c:formatCode="h:mm:ss">
+                  <c:v>0.000115740740740741</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="h:mm:ss">
+                  <c:v>0.000231481481481481</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="h:mm:ss">
+                  <c:v>0.000347222222222222</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="h:mm:ss">
+                  <c:v>0.000462962962962963</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="h:mm:ss">
+                  <c:v>0.000578703703703704</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="h:mm:ss">
+                  <c:v>0.000694444444444444</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="h:mm:ss">
+                  <c:v>0.000810185185185185</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="h:mm:ss">
+                  <c:v>0.000925925925925926</c:v>
+                </c:pt>
+                <c:pt idx="8" c:formatCode="h:mm:ss">
+                  <c:v>0.00104166666666667</c:v>
+                </c:pt>
+                <c:pt idx="9" c:formatCode="h:mm:ss">
+                  <c:v>0.00115740740740741</c:v>
+                </c:pt>
+                <c:pt idx="10" c:formatCode="h:mm:ss">
+                  <c:v>0.00127314814814815</c:v>
+                </c:pt>
+                <c:pt idx="11" c:formatCode="h:mm:ss">
+                  <c:v>0.00138888888888889</c:v>
+                </c:pt>
+                <c:pt idx="12" c:formatCode="h:mm:ss">
+                  <c:v>0.00150462962962963</c:v>
+                </c:pt>
+                <c:pt idx="13" c:formatCode="h:mm:ss">
+                  <c:v>0.00162037037037037</c:v>
+                </c:pt>
+                <c:pt idx="14" c:formatCode="h:mm:ss">
+                  <c:v>0.00173611111111111</c:v>
+                </c:pt>
+                <c:pt idx="15" c:formatCode="h:mm:ss">
+                  <c:v>0.00185185185185185</c:v>
+                </c:pt>
+                <c:pt idx="16" c:formatCode="h:mm:ss">
+                  <c:v>0.00196759259259259</c:v>
+                </c:pt>
+                <c:pt idx="17" c:formatCode="h:mm:ss">
+                  <c:v>0.00208333333333333</c:v>
+                </c:pt>
+                <c:pt idx="18" c:formatCode="h:mm:ss">
+                  <c:v>0.00219907407407407</c:v>
+                </c:pt>
+                <c:pt idx="19" c:formatCode="h:mm:ss">
+                  <c:v>0.00231481481481482</c:v>
+                </c:pt>
+                <c:pt idx="20" c:formatCode="h:mm:ss">
+                  <c:v>0.00243055555555556</c:v>
+                </c:pt>
+                <c:pt idx="21" c:formatCode="h:mm:ss">
+                  <c:v>0.0025462962962963</c:v>
+                </c:pt>
+                <c:pt idx="22" c:formatCode="h:mm:ss">
+                  <c:v>0.00266203703703704</c:v>
+                </c:pt>
+                <c:pt idx="23" c:formatCode="h:mm:ss">
+                  <c:v>0.00277777777777778</c:v>
+                </c:pt>
+                <c:pt idx="24" c:formatCode="h:mm:ss">
+                  <c:v>0.00289351851851852</c:v>
+                </c:pt>
+                <c:pt idx="25" c:formatCode="h:mm:ss">
+                  <c:v>0.00300925925925926</c:v>
+                </c:pt>
+                <c:pt idx="26" c:formatCode="h:mm:ss">
+                  <c:v>0.003125</c:v>
+                </c:pt>
+                <c:pt idx="27" c:formatCode="h:mm:ss">
+                  <c:v>0.00324074074074074</c:v>
+                </c:pt>
+                <c:pt idx="28" c:formatCode="h:mm:ss">
+                  <c:v>0.00335648148148148</c:v>
+                </c:pt>
+                <c:pt idx="29" c:formatCode="h:mm:ss">
+                  <c:v>0.00347222222222222</c:v>
+                </c:pt>
+                <c:pt idx="30" c:formatCode="h:mm:ss">
+                  <c:v>0.00358796296296296</c:v>
+                </c:pt>
+                <c:pt idx="31" c:formatCode="h:mm:ss">
+                  <c:v>0.0037037037037037</c:v>
+                </c:pt>
+                <c:pt idx="32" c:formatCode="h:mm:ss">
+                  <c:v>0.00381944444444444</c:v>
+                </c:pt>
+                <c:pt idx="33" c:formatCode="h:mm:ss">
+                  <c:v>0.00393518518518519</c:v>
+                </c:pt>
+                <c:pt idx="34" c:formatCode="h:mm:ss">
+                  <c:v>0.00405092592592593</c:v>
+                </c:pt>
+                <c:pt idx="35" c:formatCode="h:mm:ss">
+                  <c:v>0.00416666666666667</c:v>
+                </c:pt>
+                <c:pt idx="36" c:formatCode="h:mm:ss">
+                  <c:v>0.00428240740740741</c:v>
+                </c:pt>
+                <c:pt idx="37" c:formatCode="h:mm:ss">
+                  <c:v>0.00439814814814815</c:v>
+                </c:pt>
+                <c:pt idx="38" c:formatCode="h:mm:ss">
+                  <c:v>0.00451388888888889</c:v>
+                </c:pt>
+                <c:pt idx="39" c:formatCode="h:mm:ss">
+                  <c:v>0.00462962962962963</c:v>
+                </c:pt>
+                <c:pt idx="40" c:formatCode="h:mm:ss">
+                  <c:v>0.00474537037037037</c:v>
+                </c:pt>
+                <c:pt idx="41" c:formatCode="h:mm:ss">
+                  <c:v>0.00486111111111111</c:v>
+                </c:pt>
+                <c:pt idx="42" c:formatCode="h:mm:ss">
+                  <c:v>0.00497685185185185</c:v>
+                </c:pt>
+                <c:pt idx="43" c:formatCode="h:mm:ss">
+                  <c:v>0.00509259259259259</c:v>
+                </c:pt>
+                <c:pt idx="44" c:formatCode="h:mm:ss">
+                  <c:v>0.00520833333333333</c:v>
+                </c:pt>
+                <c:pt idx="45" c:formatCode="h:mm:ss">
+                  <c:v>0.00532407407407407</c:v>
+                </c:pt>
+                <c:pt idx="46" c:formatCode="h:mm:ss">
+                  <c:v>0.00543981481481481</c:v>
+                </c:pt>
+                <c:pt idx="47" c:formatCode="h:mm:ss">
+                  <c:v>0.00555555555555556</c:v>
+                </c:pt>
+                <c:pt idx="48" c:formatCode="h:mm:ss">
+                  <c:v>0.0056712962962963</c:v>
+                </c:pt>
+                <c:pt idx="49" c:formatCode="h:mm:ss">
+                  <c:v>0.00578703703703704</c:v>
+                </c:pt>
+                <c:pt idx="50" c:formatCode="h:mm:ss">
+                  <c:v>0.00590277777777778</c:v>
+                </c:pt>
+                <c:pt idx="51" c:formatCode="h:mm:ss">
+                  <c:v>0.00601851851851852</c:v>
+                </c:pt>
+                <c:pt idx="52" c:formatCode="h:mm:ss">
+                  <c:v>0.00613425925925926</c:v>
+                </c:pt>
+                <c:pt idx="53" c:formatCode="h:mm:ss">
+                  <c:v>0.00625</c:v>
+                </c:pt>
+                <c:pt idx="54" c:formatCode="h:mm:ss">
+                  <c:v>0.00636574074074074</c:v>
+                </c:pt>
+                <c:pt idx="55" c:formatCode="h:mm:ss">
+                  <c:v>0.00648148148148148</c:v>
+                </c:pt>
+                <c:pt idx="56" c:formatCode="h:mm:ss">
+                  <c:v>0.00659722222222222</c:v>
+                </c:pt>
+                <c:pt idx="57" c:formatCode="h:mm:ss">
+                  <c:v>0.00671296296296296</c:v>
+                </c:pt>
+                <c:pt idx="58" c:formatCode="h:mm:ss">
+                  <c:v>0.0068287037037037</c:v>
+                </c:pt>
+                <c:pt idx="59" c:formatCode="h:mm:ss">
+                  <c:v>0.00694444444444444</c:v>
+                </c:pt>
+                <c:pt idx="60" c:formatCode="h:mm:ss">
+                  <c:v>0.00706018518518518</c:v>
+                </c:pt>
+                <c:pt idx="61" c:formatCode="h:mm:ss">
+                  <c:v>0.00717592592592593</c:v>
+                </c:pt>
+                <c:pt idx="62" c:formatCode="h:mm:ss">
+                  <c:v>0.00729166666666667</c:v>
+                </c:pt>
+                <c:pt idx="63" c:formatCode="h:mm:ss">
+                  <c:v>0.00740740740740741</c:v>
+                </c:pt>
+                <c:pt idx="64" c:formatCode="h:mm:ss">
+                  <c:v>0.00752314814814815</c:v>
+                </c:pt>
+                <c:pt idx="65" c:formatCode="h:mm:ss">
+                  <c:v>0.00763888888888889</c:v>
+                </c:pt>
+                <c:pt idx="66" c:formatCode="h:mm:ss">
+                  <c:v>0.00775462962962963</c:v>
+                </c:pt>
+                <c:pt idx="67" c:formatCode="h:mm:ss">
+                  <c:v>0.00787037037037037</c:v>
+                </c:pt>
+                <c:pt idx="68" c:formatCode="h:mm:ss">
+                  <c:v>0.00798611111111111</c:v>
+                </c:pt>
+                <c:pt idx="69" c:formatCode="h:mm:ss">
+                  <c:v>0.00810185185185185</c:v>
+                </c:pt>
+                <c:pt idx="70" c:formatCode="h:mm:ss">
+                  <c:v>0.00821759259259259</c:v>
+                </c:pt>
+                <c:pt idx="71" c:formatCode="h:mm:ss">
+                  <c:v>0.00833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="72" c:formatCode="h:mm:ss">
+                  <c:v>0.00844907407407407</c:v>
+                </c:pt>
+                <c:pt idx="73" c:formatCode="h:mm:ss">
+                  <c:v>0.00856481481481482</c:v>
+                </c:pt>
+                <c:pt idx="74" c:formatCode="h:mm:ss">
+                  <c:v>0.00868055555555556</c:v>
+                </c:pt>
+                <c:pt idx="75" c:formatCode="h:mm:ss">
+                  <c:v>0.0087962962962963</c:v>
+                </c:pt>
+                <c:pt idx="76" c:formatCode="h:mm:ss">
+                  <c:v>0.00891203703703704</c:v>
+                </c:pt>
+                <c:pt idx="77" c:formatCode="h:mm:ss">
+                  <c:v>0.00902777777777778</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$6:$E$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="78"/>
+                <c:pt idx="0">
+                  <c:v>5.29</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.29</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.92</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.61</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.06</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.35</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.61</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.22</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.78</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.55</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.38</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.42</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.43</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.68</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.28</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.43</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.13</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.75</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.19</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.43</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.32</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.51</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.51</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.25</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.52</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.39</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.45</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.69</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8.57</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8.63</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8.99</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9.03</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>8.69</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>8.43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>8.81</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>8.58</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>8.68</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>8.78</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>9.12</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>9.22</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>9.55</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>9.88</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>10.52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>10.78</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>11.14</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>10.46</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>10.57</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>10.69</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>10.63</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>10.55</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>10.42</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>10.54</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>10.51</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>10.73</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>10.92</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>11.59</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>11.17</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>11.01</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>10.71</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>10.19</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>10.31</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>9.64</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>9.28</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>8.94</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>9.04</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>9.08</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>8.48</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>8.14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="0"/>
+        <c:smooth val="0"/>
+        <c:axId val="833076503"/>
+        <c:axId val="151342004"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="833076503"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="151342004"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="151342004"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="833076503"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>264795</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>516255</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="11991975" y="14048105"/>
+        <a:ext cx="4572000" cy="2743200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -495,21 +2445,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AI85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M59" workbookViewId="0">
-      <selection activeCell="X76" sqref="X76"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="O74" sqref="O74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -517,7 +2467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -531,7 +2481,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -590,54 +2540,54 @@
         <v>23</v>
       </c>
       <c r="U4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="V4" s="2" t="s">
+      <c r="AC4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="W4" s="2" t="s">
+      <c r="AD4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="X4" s="2" t="s">
+      <c r="AE4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="AF4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="Z4" s="2" t="s">
+      <c r="AG4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AA4" s="2" t="s">
+      <c r="AH4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AB4" s="2" t="s">
+      <c r="AI4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AC4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AF4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI4" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>1.1574074074074073E-4</v>
+        <v>0.000115740740740741</v>
       </c>
       <c r="B6" s="1">
         <v>0.923761574074074</v>
@@ -688,12 +2638,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>2.3148148148148146E-4</v>
+        <v>0.000231481481481481</v>
       </c>
       <c r="B7" s="1">
-        <v>0.92387731481481483</v>
+        <v>0.923877314814815</v>
       </c>
       <c r="C7">
         <v>94</v>
@@ -741,12 +2691,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
-        <v>3.4722222222222224E-4</v>
+        <v>0.000347222222222222</v>
       </c>
       <c r="B8" s="1">
-        <v>0.92399305555555555</v>
+        <v>0.923993055555556</v>
       </c>
       <c r="C8">
         <v>91</v>
@@ -794,15 +2744,15 @@
         <v>43</v>
       </c>
       <c r="S8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>4.6296296296296293E-4</v>
+        <v>0.000462962962962963</v>
       </c>
       <c r="B9" s="1">
-        <v>0.92410879629629628</v>
+        <v>0.924108796296296</v>
       </c>
       <c r="C9">
         <v>88</v>
@@ -850,12 +2800,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>5.7870370370370378E-4</v>
+        <v>0.000578703703703704</v>
       </c>
       <c r="B10" s="1">
-        <v>0.92422453703703711</v>
+        <v>0.924224537037037</v>
       </c>
       <c r="C10">
         <v>82</v>
@@ -903,12 +2853,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>6.9444444444444447E-4</v>
+        <v>0.000694444444444444</v>
       </c>
       <c r="B11" s="1">
-        <v>0.92434027777777772</v>
+        <v>0.924340277777778</v>
       </c>
       <c r="C11">
         <v>85</v>
@@ -956,12 +2906,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>8.1018518518518516E-4</v>
+        <v>0.000810185185185185</v>
       </c>
       <c r="B12" s="1">
-        <v>0.92445601851851855</v>
+        <v>0.924456018518519</v>
       </c>
       <c r="C12">
         <v>79</v>
@@ -970,7 +2920,7 @@
         <v>57</v>
       </c>
       <c r="E12">
-        <v>4.6100000000000003</v>
+        <v>4.61</v>
       </c>
       <c r="F12">
         <v>2.91</v>
@@ -1009,12 +2959,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
-        <v>9.2592592592592585E-4</v>
+        <v>0.000925925925925926</v>
       </c>
       <c r="B13" s="1">
-        <v>0.92457175925925927</v>
+        <v>0.924571759259259</v>
       </c>
       <c r="C13">
         <v>87</v>
@@ -1023,7 +2973,7 @@
         <v>57</v>
       </c>
       <c r="E13">
-        <v>5.0599999999999996</v>
+        <v>5.06</v>
       </c>
       <c r="F13">
         <v>3.19</v>
@@ -1062,9 +3012,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
-        <v>1.0416666666666667E-3</v>
+        <v>0.00104166666666667</v>
       </c>
       <c r="B14" s="1">
         <v>0.9246875</v>
@@ -1115,12 +3065,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
-        <v>1.1574074074074073E-3</v>
+        <v>0.00115740740740741</v>
       </c>
       <c r="B15" s="1">
-        <v>0.92480324074074083</v>
+        <v>0.924803240740741</v>
       </c>
       <c r="C15">
         <v>91</v>
@@ -1168,12 +3118,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
-        <v>1.2731481481481483E-3</v>
+        <v>0.00127314814814815</v>
       </c>
       <c r="B16" s="1">
-        <v>0.92491898148148144</v>
+        <v>0.924918981481481</v>
       </c>
       <c r="C16">
         <v>89</v>
@@ -1221,12 +3171,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
-        <v>1.3888888888888889E-3</v>
+        <v>0.00138888888888889</v>
       </c>
       <c r="B17" s="1">
-        <v>0.92503472222222216</v>
+        <v>0.925034722222222</v>
       </c>
       <c r="C17">
         <v>85</v>
@@ -1274,12 +3224,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
-        <v>1.5046296296296294E-3</v>
+        <v>0.00150462962962963</v>
       </c>
       <c r="B18" s="1">
-        <v>0.92515046296296299</v>
+        <v>0.925150462962963</v>
       </c>
       <c r="C18">
         <v>83</v>
@@ -1327,12 +3277,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
-        <v>1.6203703703703703E-3</v>
+        <v>0.00162037037037037</v>
       </c>
       <c r="B19" s="1">
-        <v>0.92526620370370372</v>
+        <v>0.925266203703704</v>
       </c>
       <c r="C19">
         <v>84</v>
@@ -1380,12 +3330,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35">
       <c r="A20" s="1">
-        <v>1.736111111111111E-3</v>
+        <v>0.00173611111111111</v>
       </c>
       <c r="B20" s="1">
-        <v>0.92538194444444455</v>
+        <v>0.925381944444445</v>
       </c>
       <c r="C20">
         <v>86</v>
@@ -1438,23 +3388,23 @@
       </c>
       <c r="V20" s="2">
         <f t="shared" ref="V20:AI20" si="0">AVERAGE(D6:D20)</f>
-        <v>59.733333333333334</v>
+        <v>59.7333333333333</v>
       </c>
       <c r="W20" s="2">
         <f t="shared" si="0"/>
-        <v>5.2566666666666668</v>
+        <v>5.25666666666667</v>
       </c>
       <c r="X20" s="2">
         <f t="shared" si="0"/>
-        <v>3.3159999999999998</v>
+        <v>3.316</v>
       </c>
       <c r="Y20" s="2">
         <f t="shared" si="0"/>
-        <v>67.733333333333334</v>
+        <v>67.7333333333333</v>
       </c>
       <c r="Z20" s="2">
         <f t="shared" si="0"/>
-        <v>416.46666666666664</v>
+        <v>416.466666666667</v>
       </c>
       <c r="AA20" s="2">
         <f t="shared" si="0"/>
@@ -1462,7 +3412,7 @@
       </c>
       <c r="AB20" s="2">
         <f t="shared" si="0"/>
-        <v>99.666666666666671</v>
+        <v>99.6666666666667</v>
       </c>
       <c r="AC20" s="2">
         <f t="shared" si="0"/>
@@ -1470,11 +3420,11 @@
       </c>
       <c r="AD20" s="2">
         <f t="shared" si="0"/>
-        <v>87.86666666666666</v>
+        <v>87.8666666666667</v>
       </c>
       <c r="AE20" s="2">
         <f t="shared" si="0"/>
-        <v>1116.5333333333333</v>
+        <v>1116.53333333333</v>
       </c>
       <c r="AF20" s="2">
         <f t="shared" si="0"/>
@@ -1482,23 +3432,23 @@
       </c>
       <c r="AG20" s="2">
         <f t="shared" si="0"/>
-        <v>3.3426666666666662</v>
+        <v>3.34266666666667</v>
       </c>
       <c r="AH20" s="2">
         <f t="shared" si="0"/>
-        <v>120.13333333333334</v>
+        <v>120.133333333333</v>
       </c>
       <c r="AI20" s="2">
         <f t="shared" si="0"/>
-        <v>43.133333333333333</v>
-      </c>
-    </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+        <v>43.1333333333333</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35">
       <c r="A21" s="1">
-        <v>1.8518518518518517E-3</v>
+        <v>0.00185185185185185</v>
       </c>
       <c r="B21" s="1">
-        <v>0.92549768518518516</v>
+        <v>0.925497685185185</v>
       </c>
       <c r="C21">
         <v>90</v>
@@ -1561,12 +3511,12 @@
       <c r="AH21" s="2"/>
       <c r="AI21" s="2"/>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35">
       <c r="A22" s="1">
-        <v>1.9675925925925928E-3</v>
+        <v>0.00196759259259259</v>
       </c>
       <c r="B22" s="1">
-        <v>0.92561342592592588</v>
+        <v>0.925613425925926</v>
       </c>
       <c r="C22">
         <v>89</v>
@@ -1629,12 +3579,12 @@
       <c r="AH22" s="2"/>
       <c r="AI22" s="2"/>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35">
       <c r="A23" s="1">
-        <v>2.0833333333333333E-3</v>
+        <v>0.00208333333333333</v>
       </c>
       <c r="B23" s="1">
-        <v>0.92572916666666671</v>
+        <v>0.925729166666667</v>
       </c>
       <c r="C23">
         <v>90</v>
@@ -1697,12 +3647,12 @@
       <c r="AH23" s="2"/>
       <c r="AI23" s="2"/>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35">
       <c r="A24" s="1">
-        <v>2.1990740740740742E-3</v>
+        <v>0.00219907407407407</v>
       </c>
       <c r="B24" s="1">
-        <v>0.92584490740740744</v>
+        <v>0.925844907407407</v>
       </c>
       <c r="C24">
         <v>91</v>
@@ -1765,12 +3715,12 @@
       <c r="AH24" s="2"/>
       <c r="AI24" s="2"/>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35">
       <c r="A25" s="1">
-        <v>2.3148148148148151E-3</v>
+        <v>0.00231481481481482</v>
       </c>
       <c r="B25" s="1">
-        <v>0.92596064814814805</v>
+        <v>0.925960648148148</v>
       </c>
       <c r="C25">
         <v>95</v>
@@ -1833,12 +3783,12 @@
       <c r="AH25" s="2"/>
       <c r="AI25" s="2"/>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35">
       <c r="A26" s="1">
-        <v>2.4305555555555556E-3</v>
+        <v>0.00243055555555556</v>
       </c>
       <c r="B26" s="1">
-        <v>0.92607638888888888</v>
+        <v>0.926076388888889</v>
       </c>
       <c r="C26">
         <v>90</v>
@@ -1901,12 +3851,12 @@
       <c r="AH26" s="2"/>
       <c r="AI26" s="2"/>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35">
       <c r="A27" s="1">
-        <v>2.5462962962962961E-3</v>
+        <v>0.0025462962962963</v>
       </c>
       <c r="B27" s="1">
-        <v>0.9261921296296296</v>
+        <v>0.92619212962963</v>
       </c>
       <c r="C27">
         <v>90</v>
@@ -1969,12 +3919,12 @@
       <c r="AH27" s="2"/>
       <c r="AI27" s="2"/>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35">
       <c r="A28" s="1">
-        <v>2.6620370370370374E-3</v>
+        <v>0.00266203703703704</v>
       </c>
       <c r="B28" s="1">
-        <v>0.92630787037037043</v>
+        <v>0.92630787037037</v>
       </c>
       <c r="C28">
         <v>101</v>
@@ -1986,7 +3936,7 @@
         <v>6.43</v>
       </c>
       <c r="F28">
-        <v>4.0599999999999996</v>
+        <v>4.06</v>
       </c>
       <c r="G28">
         <v>68</v>
@@ -2037,12 +3987,12 @@
       <c r="AH28" s="2"/>
       <c r="AI28" s="2"/>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35">
       <c r="A29" s="1">
-        <v>2.7777777777777779E-3</v>
+        <v>0.00277777777777778</v>
       </c>
       <c r="B29" s="1">
-        <v>0.92642361111111116</v>
+        <v>0.926423611111111</v>
       </c>
       <c r="C29">
         <v>103</v>
@@ -2090,7 +4040,7 @@
         <v>38</v>
       </c>
       <c r="S29" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="U29" s="2"/>
       <c r="V29" s="2"/>
@@ -2108,12 +4058,12 @@
       <c r="AH29" s="2"/>
       <c r="AI29" s="2"/>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35">
       <c r="A30" s="1">
-        <v>2.8935185185185188E-3</v>
+        <v>0.00289351851851852</v>
       </c>
       <c r="B30" s="1">
-        <v>0.92653935185185177</v>
+        <v>0.926539351851852</v>
       </c>
       <c r="C30">
         <v>109</v>
@@ -2125,7 +4075,7 @@
         <v>7.75</v>
       </c>
       <c r="F30">
-        <v>4.8899999999999997</v>
+        <v>4.89</v>
       </c>
       <c r="G30">
         <v>72</v>
@@ -2176,12 +4126,12 @@
       <c r="AH30" s="2"/>
       <c r="AI30" s="2"/>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35">
       <c r="A31" s="1">
-        <v>3.0092592592592588E-3</v>
+        <v>0.00300925925925926</v>
       </c>
       <c r="B31" s="1">
-        <v>0.9266550925925926</v>
+        <v>0.926655092592593</v>
       </c>
       <c r="C31">
         <v>113</v>
@@ -2244,12 +4194,12 @@
       <c r="AH31" s="2"/>
       <c r="AI31" s="2"/>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35">
       <c r="A32" s="1">
-        <v>3.1249999999999997E-3</v>
+        <v>0.003125</v>
       </c>
       <c r="B32" s="1">
-        <v>0.92677083333333332</v>
+        <v>0.926770833333333</v>
       </c>
       <c r="C32">
         <v>113</v>
@@ -2312,12 +4262,12 @@
       <c r="AH32" s="2"/>
       <c r="AI32" s="2"/>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:35">
       <c r="A33" s="1">
-        <v>3.2407407407407406E-3</v>
+        <v>0.00324074074074074</v>
       </c>
       <c r="B33" s="1">
-        <v>0.92688657407407404</v>
+        <v>0.926886574074074</v>
       </c>
       <c r="C33">
         <v>116</v>
@@ -2380,12 +4330,12 @@
       <c r="AH33" s="2"/>
       <c r="AI33" s="2"/>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:35">
       <c r="A34" s="1">
-        <v>3.3564814814814811E-3</v>
+        <v>0.00335648148148148</v>
       </c>
       <c r="B34" s="1">
-        <v>0.92700231481481488</v>
+        <v>0.927002314814815</v>
       </c>
       <c r="C34">
         <v>114</v>
@@ -2448,12 +4398,12 @@
       <c r="AH34" s="2"/>
       <c r="AI34" s="2"/>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:35">
       <c r="A35" s="1">
-        <v>3.472222222222222E-3</v>
+        <v>0.00347222222222222</v>
       </c>
       <c r="B35" s="1">
-        <v>0.92711805555555549</v>
+        <v>0.927118055555555</v>
       </c>
       <c r="C35">
         <v>116</v>
@@ -2516,12 +4466,12 @@
       <c r="AH35" s="2"/>
       <c r="AI35" s="2"/>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:35">
       <c r="A36" s="1">
-        <v>3.5879629629629629E-3</v>
+        <v>0.00358796296296296</v>
       </c>
       <c r="B36" s="1">
-        <v>0.92723379629629632</v>
+        <v>0.927233796296296</v>
       </c>
       <c r="C36">
         <v>114</v>
@@ -2584,12 +4534,12 @@
       <c r="AH36" s="2"/>
       <c r="AI36" s="2"/>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:35">
       <c r="A37" s="1">
-        <v>3.7037037037037034E-3</v>
+        <v>0.0037037037037037</v>
       </c>
       <c r="B37" s="1">
-        <v>0.92734953703703704</v>
+        <v>0.927349537037037</v>
       </c>
       <c r="C37">
         <v>111</v>
@@ -2652,12 +4602,12 @@
       <c r="AH37" s="2"/>
       <c r="AI37" s="2"/>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:35">
       <c r="A38" s="1">
-        <v>3.8194444444444443E-3</v>
+        <v>0.00381944444444444</v>
       </c>
       <c r="B38" s="1">
-        <v>0.92746527777777776</v>
+        <v>0.927465277777778</v>
       </c>
       <c r="C38">
         <v>116</v>
@@ -2720,12 +4670,12 @@
       <c r="AH38" s="2"/>
       <c r="AI38" s="2"/>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:35">
       <c r="A39" s="1">
-        <v>3.9351851851851857E-3</v>
+        <v>0.00393518518518519</v>
       </c>
       <c r="B39" s="1">
-        <v>0.9275810185185186</v>
+        <v>0.927581018518519</v>
       </c>
       <c r="C39">
         <v>115</v>
@@ -2788,12 +4738,12 @@
       <c r="AH39" s="2"/>
       <c r="AI39" s="2"/>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:35">
       <c r="A40" s="1">
-        <v>4.0509259259259257E-3</v>
+        <v>0.00405092592592593</v>
       </c>
       <c r="B40" s="1">
-        <v>0.92769675925925921</v>
+        <v>0.927696759259259</v>
       </c>
       <c r="C40">
         <v>115</v>
@@ -2802,7 +4752,7 @@
         <v>72</v>
       </c>
       <c r="E40">
-        <v>8.4499999999999993</v>
+        <v>8.45</v>
       </c>
       <c r="F40">
         <v>5.33</v>
@@ -2856,12 +4806,12 @@
       <c r="AH40" s="2"/>
       <c r="AI40" s="2"/>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:35">
       <c r="A41" s="1">
-        <v>4.1666666666666666E-3</v>
+        <v>0.00416666666666667</v>
       </c>
       <c r="B41" s="1">
-        <v>0.92781249999999993</v>
+        <v>0.9278125</v>
       </c>
       <c r="C41">
         <v>116</v>
@@ -2924,12 +4874,12 @@
       <c r="AH41" s="2"/>
       <c r="AI41" s="2"/>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:35">
       <c r="A42" s="1">
-        <v>4.2824074074074075E-3</v>
+        <v>0.00428240740740741</v>
       </c>
       <c r="B42" s="1">
-        <v>0.92792824074074076</v>
+        <v>0.927928240740741</v>
       </c>
       <c r="C42">
         <v>119</v>
@@ -2992,12 +4942,12 @@
       <c r="AH42" s="2"/>
       <c r="AI42" s="2"/>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:35">
       <c r="A43" s="1">
-        <v>4.3981481481481484E-3</v>
+        <v>0.00439814814814815</v>
       </c>
       <c r="B43" s="1">
-        <v>0.92804398148148148</v>
+        <v>0.928043981481481</v>
       </c>
       <c r="C43">
         <v>117</v>
@@ -3060,12 +5010,12 @@
       <c r="AH43" s="2"/>
       <c r="AI43" s="2"/>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:35">
       <c r="A44" s="1">
-        <v>4.5138888888888893E-3</v>
+        <v>0.00451388888888889</v>
       </c>
       <c r="B44" s="1">
-        <v>0.92815972222222232</v>
+        <v>0.928159722222222</v>
       </c>
       <c r="C44">
         <v>118</v>
@@ -3074,7 +5024,7 @@
         <v>73</v>
       </c>
       <c r="E44">
-        <v>8.6300000000000008</v>
+        <v>8.63</v>
       </c>
       <c r="F44">
         <v>5.44</v>
@@ -3128,12 +5078,12 @@
       <c r="AH44" s="2"/>
       <c r="AI44" s="2"/>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:35">
       <c r="A45" s="1">
-        <v>4.6296296296296302E-3</v>
+        <v>0.00462962962962963</v>
       </c>
       <c r="B45" s="1">
-        <v>0.92827546296296293</v>
+        <v>0.928275462962963</v>
       </c>
       <c r="C45">
         <v>120</v>
@@ -3196,12 +5146,12 @@
       <c r="AH45" s="2"/>
       <c r="AI45" s="2"/>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:35">
       <c r="A46" s="1">
-        <v>4.7453703703703703E-3</v>
+        <v>0.00474537037037037</v>
       </c>
       <c r="B46" s="1">
-        <v>0.92839120370370365</v>
+        <v>0.928391203703704</v>
       </c>
       <c r="C46">
         <v>122</v>
@@ -3210,7 +5160,7 @@
         <v>73</v>
       </c>
       <c r="E46">
-        <v>9.0299999999999994</v>
+        <v>9.03</v>
       </c>
       <c r="F46">
         <v>5.69</v>
@@ -3264,12 +5214,12 @@
       <c r="AH46" s="2"/>
       <c r="AI46" s="2"/>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:35">
       <c r="A47" s="1">
-        <v>4.8611111111111112E-3</v>
+        <v>0.00486111111111111</v>
       </c>
       <c r="B47" s="1">
-        <v>0.92850694444444448</v>
+        <v>0.928506944444444</v>
       </c>
       <c r="C47">
         <v>117</v>
@@ -3332,12 +5282,12 @@
       <c r="AH47" s="2"/>
       <c r="AI47" s="2"/>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:35">
       <c r="A48" s="1">
-        <v>4.9768518518518521E-3</v>
+        <v>0.00497685185185185</v>
       </c>
       <c r="B48" s="1">
-        <v>0.9286226851851852</v>
+        <v>0.928622685185185</v>
       </c>
       <c r="C48">
         <v>114</v>
@@ -3400,12 +5350,12 @@
       <c r="AH48" s="2"/>
       <c r="AI48" s="2"/>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:35">
       <c r="A49" s="1">
-        <v>5.0925925925925921E-3</v>
+        <v>0.00509259259259259</v>
       </c>
       <c r="B49" s="1">
-        <v>0.92873842592592604</v>
+        <v>0.928738425925926</v>
       </c>
       <c r="C49">
         <v>117</v>
@@ -3468,12 +5418,12 @@
       <c r="AH49" s="2"/>
       <c r="AI49" s="2"/>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:35">
       <c r="A50" s="1">
-        <v>5.208333333333333E-3</v>
+        <v>0.00520833333333333</v>
       </c>
       <c r="B50" s="1">
-        <v>0.92885416666666665</v>
+        <v>0.928854166666667</v>
       </c>
       <c r="C50">
         <v>116</v>
@@ -3536,12 +5486,12 @@
       <c r="AH50" s="2"/>
       <c r="AI50" s="2"/>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:35">
       <c r="A51" s="1">
-        <v>5.3240740740740748E-3</v>
+        <v>0.00532407407407407</v>
       </c>
       <c r="B51" s="1">
-        <v>0.92896990740740737</v>
+        <v>0.928969907407407</v>
       </c>
       <c r="C51">
         <v>116</v>
@@ -3589,7 +5539,7 @@
         <v>36</v>
       </c>
       <c r="S51" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="U51" s="2"/>
       <c r="V51" s="2"/>
@@ -3607,12 +5557,12 @@
       <c r="AH51" s="2"/>
       <c r="AI51" s="2"/>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:35">
       <c r="A52" s="1">
-        <v>5.4398148148148149E-3</v>
+        <v>0.00543981481481481</v>
       </c>
       <c r="B52" s="1">
-        <v>0.9290856481481482</v>
+        <v>0.929085648148148</v>
       </c>
       <c r="C52">
         <v>118</v>
@@ -3621,7 +5571,7 @@
         <v>74</v>
       </c>
       <c r="E52">
-        <v>8.7799999999999994</v>
+        <v>8.78</v>
       </c>
       <c r="F52">
         <v>5.54</v>
@@ -3675,12 +5625,12 @@
       <c r="AH52" s="2"/>
       <c r="AI52" s="2"/>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:35">
       <c r="A53" s="1">
-        <v>5.5555555555555558E-3</v>
+        <v>0.00555555555555556</v>
       </c>
       <c r="B53" s="1">
-        <v>0.92920138888888892</v>
+        <v>0.929201388888889</v>
       </c>
       <c r="C53">
         <v>122</v>
@@ -3689,7 +5639,7 @@
         <v>74</v>
       </c>
       <c r="E53">
-        <v>9.1199999999999992</v>
+        <v>9.12</v>
       </c>
       <c r="F53">
         <v>5.75</v>
@@ -3743,12 +5693,12 @@
       <c r="AH53" s="2"/>
       <c r="AI53" s="2"/>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:35">
       <c r="A54" s="1">
-        <v>5.6712962962962958E-3</v>
+        <v>0.0056712962962963</v>
       </c>
       <c r="B54" s="1">
-        <v>0.92931712962962953</v>
+        <v>0.92931712962963</v>
       </c>
       <c r="C54">
         <v>124</v>
@@ -3757,7 +5707,7 @@
         <v>73</v>
       </c>
       <c r="E54">
-        <v>9.2200000000000006</v>
+        <v>9.22</v>
       </c>
       <c r="F54">
         <v>5.81</v>
@@ -3811,12 +5761,12 @@
       <c r="AH54" s="2"/>
       <c r="AI54" s="2"/>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:35">
       <c r="A55" s="1">
-        <v>5.7870370370370376E-3</v>
+        <v>0.00578703703703704</v>
       </c>
       <c r="B55" s="1">
-        <v>0.92943287037037037</v>
+        <v>0.92943287037037</v>
       </c>
       <c r="C55">
         <v>127</v>
@@ -3825,7 +5775,7 @@
         <v>74</v>
       </c>
       <c r="E55">
-        <v>9.5500000000000007</v>
+        <v>9.55</v>
       </c>
       <c r="F55">
         <v>6.03</v>
@@ -3879,12 +5829,12 @@
       <c r="AH55" s="2"/>
       <c r="AI55" s="2"/>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:35">
       <c r="A56" s="1">
-        <v>5.9027777777777776E-3</v>
+        <v>0.00590277777777778</v>
       </c>
       <c r="B56" s="1">
-        <v>0.92954861111111109</v>
+        <v>0.929548611111111</v>
       </c>
       <c r="C56">
         <v>129</v>
@@ -3893,7 +5843,7 @@
         <v>76</v>
       </c>
       <c r="E56">
-        <v>9.8800000000000008</v>
+        <v>9.88</v>
       </c>
       <c r="F56">
         <v>6.23</v>
@@ -3947,12 +5897,12 @@
       <c r="AH56" s="2"/>
       <c r="AI56" s="2"/>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:35">
       <c r="A57" s="1">
-        <v>6.0185185185185177E-3</v>
+        <v>0.00601851851851852</v>
       </c>
       <c r="B57" s="1">
-        <v>0.92966435185185192</v>
+        <v>0.929664351851852</v>
       </c>
       <c r="C57">
         <v>135</v>
@@ -4015,12 +5965,12 @@
       <c r="AH57" s="2"/>
       <c r="AI57" s="2"/>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:35">
       <c r="A58" s="1">
-        <v>6.1342592592592594E-3</v>
+        <v>0.00613425925925926</v>
       </c>
       <c r="B58" s="1">
-        <v>0.92978009259259264</v>
+        <v>0.929780092592593</v>
       </c>
       <c r="C58">
         <v>140</v>
@@ -4083,12 +6033,12 @@
       <c r="AH58" s="2"/>
       <c r="AI58" s="2"/>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:35">
       <c r="A59" s="1">
-        <v>6.2499999999999995E-3</v>
+        <v>0.00625</v>
       </c>
       <c r="B59" s="1">
-        <v>0.92989583333333325</v>
+        <v>0.929895833333333</v>
       </c>
       <c r="C59">
         <v>143</v>
@@ -4151,12 +6101,12 @@
       <c r="AH59" s="2"/>
       <c r="AI59" s="2"/>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:35">
       <c r="A60" s="1">
-        <v>6.3657407407407404E-3</v>
+        <v>0.00636574074074074</v>
       </c>
       <c r="B60" s="1">
-        <v>0.93001157407407409</v>
+        <v>0.930011574074074</v>
       </c>
       <c r="C60">
         <v>135</v>
@@ -4219,12 +6169,12 @@
       <c r="AH60" s="2"/>
       <c r="AI60" s="2"/>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:35">
       <c r="A61" s="1">
-        <v>6.4814814814814813E-3</v>
+        <v>0.00648148148148148</v>
       </c>
       <c r="B61" s="1">
-        <v>0.93012731481481481</v>
+        <v>0.930127314814815</v>
       </c>
       <c r="C61">
         <v>132</v>
@@ -4287,12 +6237,12 @@
       <c r="AH61" s="2"/>
       <c r="AI61" s="2"/>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:35">
       <c r="A62" s="1">
-        <v>6.5972222222222222E-3</v>
+        <v>0.00659722222222222</v>
       </c>
       <c r="B62" s="1">
-        <v>0.93024305555555553</v>
+        <v>0.930243055555556</v>
       </c>
       <c r="C62">
         <v>135</v>
@@ -4340,11 +6290,11 @@
         <v>37</v>
       </c>
       <c r="S62" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="U62" s="2">
         <f>AVERAGE(C53:C62)</f>
-        <v>132.19999999999999</v>
+        <v>132.2</v>
       </c>
       <c r="V62" s="2">
         <f t="shared" ref="V62:AI62" si="1">AVERAGE(D53:D62)</f>
@@ -4352,15 +6302,15 @@
       </c>
       <c r="W62" s="2">
         <f t="shared" si="1"/>
-        <v>10.193000000000001</v>
+        <v>10.193</v>
       </c>
       <c r="X62" s="2">
         <f t="shared" si="1"/>
-        <v>6.4300000000000015</v>
+        <v>6.43</v>
       </c>
       <c r="Y62" s="2">
         <f t="shared" si="1"/>
-        <v>76.099999999999994</v>
+        <v>76.1</v>
       </c>
       <c r="Z62" s="2">
         <f t="shared" si="1"/>
@@ -4392,7 +6342,7 @@
       </c>
       <c r="AG62" s="2">
         <f t="shared" si="1"/>
-        <v>6.4809999999999999</v>
+        <v>6.481</v>
       </c>
       <c r="AH62" s="2">
         <f t="shared" si="1"/>
@@ -4403,12 +6353,12 @@
         <v>36.1</v>
       </c>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:35">
       <c r="A63" s="1">
-        <v>6.7129629629629622E-3</v>
+        <v>0.00671296296296296</v>
       </c>
       <c r="B63" s="1">
-        <v>0.93035879629629636</v>
+        <v>0.930358796296296</v>
       </c>
       <c r="C63">
         <v>138</v>
@@ -4456,7 +6406,7 @@
         <v>34</v>
       </c>
       <c r="S63" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="U63" s="2"/>
       <c r="V63" s="2"/>
@@ -4474,12 +6424,12 @@
       <c r="AH63" s="2"/>
       <c r="AI63" s="2"/>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:35">
       <c r="A64" s="1">
-        <v>6.828703703703704E-3</v>
+        <v>0.0068287037037037</v>
       </c>
       <c r="B64" s="1">
-        <v>0.93047453703703698</v>
+        <v>0.930474537037037</v>
       </c>
       <c r="C64">
         <v>137</v>
@@ -4542,12 +6492,12 @@
       <c r="AH64" s="2"/>
       <c r="AI64" s="2"/>
     </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:35">
       <c r="A65" s="1">
-        <v>6.9444444444444441E-3</v>
+        <v>0.00694444444444444</v>
       </c>
       <c r="B65" s="1">
-        <v>0.93059027777777781</v>
+        <v>0.930590277777778</v>
       </c>
       <c r="C65">
         <v>134</v>
@@ -4610,12 +6560,12 @@
       <c r="AH65" s="2"/>
       <c r="AI65" s="2"/>
     </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:35">
       <c r="A66" s="1">
-        <v>7.0601851851851841E-3</v>
+        <v>0.00706018518518518</v>
       </c>
       <c r="B66" s="1">
-        <v>0.93070601851851853</v>
+        <v>0.930706018518519</v>
       </c>
       <c r="C66">
         <v>138</v>
@@ -4678,12 +6628,12 @@
       <c r="AH66" s="2"/>
       <c r="AI66" s="2"/>
     </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:35">
       <c r="A67" s="1">
-        <v>7.1759259259259259E-3</v>
+        <v>0.00717592592592593</v>
       </c>
       <c r="B67" s="1">
-        <v>0.93082175925925925</v>
+        <v>0.930821759259259</v>
       </c>
       <c r="C67">
         <v>142</v>
@@ -4746,12 +6696,12 @@
       <c r="AH67" s="2"/>
       <c r="AI67" s="2"/>
     </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:35">
       <c r="A68" s="1">
-        <v>7.2916666666666659E-3</v>
+        <v>0.00729166666666667</v>
       </c>
       <c r="B68" s="1">
-        <v>0.93093750000000008</v>
+        <v>0.9309375</v>
       </c>
       <c r="C68">
         <v>145</v>
@@ -4799,7 +6749,7 @@
         <v>33</v>
       </c>
       <c r="S68" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="U68" s="2">
         <f>AVERAGE(C65:C68)</f>
@@ -4815,7 +6765,7 @@
       </c>
       <c r="X68" s="2">
         <f t="shared" si="2"/>
-        <v>6.6574999999999998</v>
+        <v>6.6575</v>
       </c>
       <c r="Y68" s="2">
         <f t="shared" si="2"/>
@@ -4851,7 +6801,7 @@
       </c>
       <c r="AG68" s="2">
         <f t="shared" si="2"/>
-        <v>6.7074999999999996</v>
+        <v>6.7075</v>
       </c>
       <c r="AH68" s="2">
         <f t="shared" si="2"/>
@@ -4862,12 +6812,12 @@
         <v>36.25</v>
       </c>
     </row>
-    <row r="69" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:35">
       <c r="A69" s="1">
-        <v>7.4074074074074068E-3</v>
+        <v>0.00740740740740741</v>
       </c>
       <c r="B69" s="1">
-        <v>0.9310532407407407</v>
+        <v>0.931053240740741</v>
       </c>
       <c r="C69">
         <v>149</v>
@@ -4930,12 +6880,12 @@
       <c r="AH69" s="2"/>
       <c r="AI69" s="2"/>
     </row>
-    <row r="70" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:35">
       <c r="A70" s="1">
-        <v>7.5231481481481477E-3</v>
+        <v>0.00752314814814815</v>
       </c>
       <c r="B70" s="1">
-        <v>0.93116898148148142</v>
+        <v>0.931168981481481</v>
       </c>
       <c r="C70">
         <v>150</v>
@@ -4998,12 +6948,12 @@
       <c r="AH70" s="2"/>
       <c r="AI70" s="2"/>
     </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:35">
       <c r="A71" s="1">
-        <v>7.6388888888888886E-3</v>
+        <v>0.00763888888888889</v>
       </c>
       <c r="B71" s="1">
-        <v>0.93128472222222225</v>
+        <v>0.931284722222222</v>
       </c>
       <c r="C71">
         <v>155</v>
@@ -5051,7 +7001,7 @@
         <v>42</v>
       </c>
       <c r="S71" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="U71" s="2"/>
       <c r="V71" s="2"/>
@@ -5069,12 +7019,12 @@
       <c r="AH71" s="2"/>
       <c r="AI71" s="2"/>
     </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:35">
       <c r="A72" s="1">
-        <v>7.7546296296296287E-3</v>
+        <v>0.00775462962962963</v>
       </c>
       <c r="B72" s="1">
-        <v>0.93140046296296297</v>
+        <v>0.931400462962963</v>
       </c>
       <c r="C72">
         <v>155</v>
@@ -5137,12 +7087,12 @@
       <c r="AH72" s="2"/>
       <c r="AI72" s="2"/>
     </row>
-    <row r="73" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:35">
       <c r="A73" s="1">
-        <v>7.8703703703703713E-3</v>
+        <v>0.00787037037037037</v>
       </c>
       <c r="B73" s="1">
-        <v>0.9315162037037038</v>
+        <v>0.931516203703704</v>
       </c>
       <c r="C73">
         <v>154</v>
@@ -5190,7 +7140,7 @@
         <v>30</v>
       </c>
       <c r="S73" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="U73" s="2"/>
       <c r="V73" s="2"/>
@@ -5208,12 +7158,12 @@
       <c r="AH73" s="2"/>
       <c r="AI73" s="2"/>
     </row>
-    <row r="74" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:35">
       <c r="A74" s="1">
-        <v>7.9861111111111122E-3</v>
+        <v>0.00798611111111111</v>
       </c>
       <c r="B74" s="1">
-        <v>0.93163194444444442</v>
+        <v>0.931631944444444</v>
       </c>
       <c r="C74">
         <v>147</v>
@@ -5274,7 +7224,7 @@
       </c>
       <c r="X74" s="2">
         <f t="shared" si="3"/>
-        <v>7.0175000000000001</v>
+        <v>7.0175</v>
       </c>
       <c r="Y74" s="2">
         <f t="shared" si="3"/>
@@ -5310,7 +7260,7 @@
       </c>
       <c r="AG74" s="2">
         <f t="shared" si="3"/>
-        <v>7.0699999999999994</v>
+        <v>7.07</v>
       </c>
       <c r="AH74" s="2">
         <f t="shared" si="3"/>
@@ -5321,12 +7271,12 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="75" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17">
       <c r="A75" s="1">
-        <v>8.1018518518518514E-3</v>
+        <v>0.00810185185185185</v>
       </c>
       <c r="B75" s="1">
-        <v>0.93174768518518514</v>
+        <v>0.931747685185185</v>
       </c>
       <c r="C75">
         <v>141</v>
@@ -5374,12 +7324,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="76" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17">
       <c r="A76" s="1">
-        <v>8.217592592592594E-3</v>
+        <v>0.00821759259259259</v>
       </c>
       <c r="B76" s="1">
-        <v>0.93186342592592597</v>
+        <v>0.931863425925926</v>
       </c>
       <c r="C76">
         <v>141</v>
@@ -5427,12 +7377,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="77" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17">
       <c r="A77" s="1">
-        <v>8.3333333333333332E-3</v>
+        <v>0.00833333333333333</v>
       </c>
       <c r="B77" s="1">
-        <v>0.93197916666666669</v>
+        <v>0.931979166666667</v>
       </c>
       <c r="C77">
         <v>137</v>
@@ -5480,12 +7430,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="78" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17">
       <c r="A78" s="1">
-        <v>8.4490740740740741E-3</v>
+        <v>0.00844907407407407</v>
       </c>
       <c r="B78" s="1">
-        <v>0.9320949074074073</v>
+        <v>0.932094907407407</v>
       </c>
       <c r="C78">
         <v>129</v>
@@ -5494,7 +7444,7 @@
         <v>71</v>
       </c>
       <c r="E78">
-        <v>9.2799999999999994</v>
+        <v>9.28</v>
       </c>
       <c r="F78">
         <v>5.85</v>
@@ -5533,12 +7483,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="79" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17">
       <c r="A79" s="1">
-        <v>8.564814814814815E-3</v>
+        <v>0.00856481481481482</v>
       </c>
       <c r="B79" s="1">
-        <v>0.93221064814814814</v>
+        <v>0.932210648148148</v>
       </c>
       <c r="C79">
         <v>124</v>
@@ -5586,12 +7536,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="80" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17">
       <c r="A80" s="1">
-        <v>8.6805555555555559E-3</v>
+        <v>0.00868055555555556</v>
       </c>
       <c r="B80" s="1">
-        <v>0.93232638888888886</v>
+        <v>0.932326388888889</v>
       </c>
       <c r="C80">
         <v>122</v>
@@ -5600,7 +7550,7 @@
         <v>73</v>
       </c>
       <c r="E80">
-        <v>9.0399999999999991</v>
+        <v>9.04</v>
       </c>
       <c r="F80">
         <v>5.7</v>
@@ -5639,12 +7589,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17">
       <c r="A81" s="1">
-        <v>8.7962962962962968E-3</v>
+        <v>0.0087962962962963</v>
       </c>
       <c r="B81" s="1">
-        <v>0.93244212962962969</v>
+        <v>0.93244212962963</v>
       </c>
       <c r="C81">
         <v>122</v>
@@ -5692,12 +7642,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17">
       <c r="A82" s="1">
-        <v>8.9120370370370378E-3</v>
+        <v>0.00891203703703704</v>
       </c>
       <c r="B82" s="1">
-        <v>0.93255787037037041</v>
+        <v>0.93255787037037</v>
       </c>
       <c r="C82">
         <v>115</v>
@@ -5745,12 +7695,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17">
       <c r="A83" s="1">
-        <v>9.0277777777777787E-3</v>
+        <v>0.00902777777777778</v>
       </c>
       <c r="B83" s="1">
-        <v>0.93267361111111102</v>
+        <v>0.932673611111111</v>
       </c>
       <c r="C83">
         <v>111</v>
@@ -5798,36 +7748,46 @@
         <v>39</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/QT_VO2max_Data/Xining_VO2_QT_values_revisited_20June2019/VO2_Physioflow_Avg_Match_Watts_Dean/physioflow/23Sept2013_Xining_Physioflow_X9X13/X11 at 2200.xlsx
+++ b/QT_VO2max_Data/Xining_VO2_QT_values_revisited_20June2019/VO2_Physioflow_Avg_Match_Watts_Dean/physioflow/23Sept2013_Xining_Physioflow_X9X13/X11 at 2200.xlsx
@@ -1,17 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wanju\Desktop\check\QT_VO2max_Data\Xining_VO2_QT_values_revisited_20June2019\VO2_Physioflow_Avg_Match_Watts_Dean\physioflow\23Sept2013_Xining_Physioflow_X9X13\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{426F8ECD-4B57-40F9-B5FF-5BC9E71B8533}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="16391" windowHeight="5412"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -165,14 +179,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,353 +188,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -534,322 +205,36 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="35" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -861,7 +246,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -887,6 +271,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -897,10 +282,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0496079240610813"/>
-          <c:y val="0.210575793184489"/>
-          <c:w val="0.908157930939607"/>
-          <c:h val="0.618660399529965"/>
+          <c:x val="4.9607924061081297E-2"/>
+          <c:y val="0.21057579318448899"/>
+          <c:w val="0.90815793093960695"/>
+          <c:h val="0.61866039952996499"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -921,248 +306,245 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$A$6:$A$83</c:f>
               <c:numCache>
                 <c:formatCode>h:mm:ss</c:formatCode>
                 <c:ptCount val="78"/>
-                <c:pt idx="0" c:formatCode="h:mm:ss">
-                  <c:v>0.000115740740740741</c:v>
-                </c:pt>
-                <c:pt idx="1" c:formatCode="h:mm:ss">
-                  <c:v>0.000231481481481481</c:v>
-                </c:pt>
-                <c:pt idx="2" c:formatCode="h:mm:ss">
-                  <c:v>0.000347222222222222</c:v>
-                </c:pt>
-                <c:pt idx="3" c:formatCode="h:mm:ss">
-                  <c:v>0.000462962962962963</c:v>
-                </c:pt>
-                <c:pt idx="4" c:formatCode="h:mm:ss">
-                  <c:v>0.000578703703703704</c:v>
-                </c:pt>
-                <c:pt idx="5" c:formatCode="h:mm:ss">
-                  <c:v>0.000694444444444444</c:v>
-                </c:pt>
-                <c:pt idx="6" c:formatCode="h:mm:ss">
-                  <c:v>0.000810185185185185</c:v>
-                </c:pt>
-                <c:pt idx="7" c:formatCode="h:mm:ss">
-                  <c:v>0.000925925925925926</c:v>
-                </c:pt>
-                <c:pt idx="8" c:formatCode="h:mm:ss">
-                  <c:v>0.00104166666666667</c:v>
-                </c:pt>
-                <c:pt idx="9" c:formatCode="h:mm:ss">
-                  <c:v>0.00115740740740741</c:v>
-                </c:pt>
-                <c:pt idx="10" c:formatCode="h:mm:ss">
-                  <c:v>0.00127314814814815</c:v>
-                </c:pt>
-                <c:pt idx="11" c:formatCode="h:mm:ss">
-                  <c:v>0.00138888888888889</c:v>
-                </c:pt>
-                <c:pt idx="12" c:formatCode="h:mm:ss">
-                  <c:v>0.00150462962962963</c:v>
-                </c:pt>
-                <c:pt idx="13" c:formatCode="h:mm:ss">
-                  <c:v>0.00162037037037037</c:v>
-                </c:pt>
-                <c:pt idx="14" c:formatCode="h:mm:ss">
-                  <c:v>0.00173611111111111</c:v>
-                </c:pt>
-                <c:pt idx="15" c:formatCode="h:mm:ss">
-                  <c:v>0.00185185185185185</c:v>
-                </c:pt>
-                <c:pt idx="16" c:formatCode="h:mm:ss">
-                  <c:v>0.00196759259259259</c:v>
-                </c:pt>
-                <c:pt idx="17" c:formatCode="h:mm:ss">
-                  <c:v>0.00208333333333333</c:v>
-                </c:pt>
-                <c:pt idx="18" c:formatCode="h:mm:ss">
-                  <c:v>0.00219907407407407</c:v>
-                </c:pt>
-                <c:pt idx="19" c:formatCode="h:mm:ss">
-                  <c:v>0.00231481481481482</c:v>
-                </c:pt>
-                <c:pt idx="20" c:formatCode="h:mm:ss">
-                  <c:v>0.00243055555555556</c:v>
-                </c:pt>
-                <c:pt idx="21" c:formatCode="h:mm:ss">
-                  <c:v>0.0025462962962963</c:v>
-                </c:pt>
-                <c:pt idx="22" c:formatCode="h:mm:ss">
-                  <c:v>0.00266203703703704</c:v>
-                </c:pt>
-                <c:pt idx="23" c:formatCode="h:mm:ss">
-                  <c:v>0.00277777777777778</c:v>
-                </c:pt>
-                <c:pt idx="24" c:formatCode="h:mm:ss">
-                  <c:v>0.00289351851851852</c:v>
-                </c:pt>
-                <c:pt idx="25" c:formatCode="h:mm:ss">
-                  <c:v>0.00300925925925926</c:v>
-                </c:pt>
-                <c:pt idx="26" c:formatCode="h:mm:ss">
-                  <c:v>0.003125</c:v>
-                </c:pt>
-                <c:pt idx="27" c:formatCode="h:mm:ss">
-                  <c:v>0.00324074074074074</c:v>
-                </c:pt>
-                <c:pt idx="28" c:formatCode="h:mm:ss">
-                  <c:v>0.00335648148148148</c:v>
-                </c:pt>
-                <c:pt idx="29" c:formatCode="h:mm:ss">
-                  <c:v>0.00347222222222222</c:v>
-                </c:pt>
-                <c:pt idx="30" c:formatCode="h:mm:ss">
-                  <c:v>0.00358796296296296</c:v>
-                </c:pt>
-                <c:pt idx="31" c:formatCode="h:mm:ss">
-                  <c:v>0.0037037037037037</c:v>
-                </c:pt>
-                <c:pt idx="32" c:formatCode="h:mm:ss">
-                  <c:v>0.00381944444444444</c:v>
-                </c:pt>
-                <c:pt idx="33" c:formatCode="h:mm:ss">
-                  <c:v>0.00393518518518519</c:v>
-                </c:pt>
-                <c:pt idx="34" c:formatCode="h:mm:ss">
-                  <c:v>0.00405092592592593</c:v>
-                </c:pt>
-                <c:pt idx="35" c:formatCode="h:mm:ss">
-                  <c:v>0.00416666666666667</c:v>
-                </c:pt>
-                <c:pt idx="36" c:formatCode="h:mm:ss">
-                  <c:v>0.00428240740740741</c:v>
-                </c:pt>
-                <c:pt idx="37" c:formatCode="h:mm:ss">
-                  <c:v>0.00439814814814815</c:v>
-                </c:pt>
-                <c:pt idx="38" c:formatCode="h:mm:ss">
-                  <c:v>0.00451388888888889</c:v>
-                </c:pt>
-                <c:pt idx="39" c:formatCode="h:mm:ss">
-                  <c:v>0.00462962962962963</c:v>
-                </c:pt>
-                <c:pt idx="40" c:formatCode="h:mm:ss">
-                  <c:v>0.00474537037037037</c:v>
-                </c:pt>
-                <c:pt idx="41" c:formatCode="h:mm:ss">
-                  <c:v>0.00486111111111111</c:v>
-                </c:pt>
-                <c:pt idx="42" c:formatCode="h:mm:ss">
-                  <c:v>0.00497685185185185</c:v>
-                </c:pt>
-                <c:pt idx="43" c:formatCode="h:mm:ss">
-                  <c:v>0.00509259259259259</c:v>
-                </c:pt>
-                <c:pt idx="44" c:formatCode="h:mm:ss">
-                  <c:v>0.00520833333333333</c:v>
-                </c:pt>
-                <c:pt idx="45" c:formatCode="h:mm:ss">
-                  <c:v>0.00532407407407407</c:v>
-                </c:pt>
-                <c:pt idx="46" c:formatCode="h:mm:ss">
-                  <c:v>0.00543981481481481</c:v>
-                </c:pt>
-                <c:pt idx="47" c:formatCode="h:mm:ss">
-                  <c:v>0.00555555555555556</c:v>
-                </c:pt>
-                <c:pt idx="48" c:formatCode="h:mm:ss">
-                  <c:v>0.0056712962962963</c:v>
-                </c:pt>
-                <c:pt idx="49" c:formatCode="h:mm:ss">
-                  <c:v>0.00578703703703704</c:v>
-                </c:pt>
-                <c:pt idx="50" c:formatCode="h:mm:ss">
-                  <c:v>0.00590277777777778</c:v>
-                </c:pt>
-                <c:pt idx="51" c:formatCode="h:mm:ss">
-                  <c:v>0.00601851851851852</c:v>
-                </c:pt>
-                <c:pt idx="52" c:formatCode="h:mm:ss">
-                  <c:v>0.00613425925925926</c:v>
-                </c:pt>
-                <c:pt idx="53" c:formatCode="h:mm:ss">
-                  <c:v>0.00625</c:v>
-                </c:pt>
-                <c:pt idx="54" c:formatCode="h:mm:ss">
-                  <c:v>0.00636574074074074</c:v>
-                </c:pt>
-                <c:pt idx="55" c:formatCode="h:mm:ss">
-                  <c:v>0.00648148148148148</c:v>
-                </c:pt>
-                <c:pt idx="56" c:formatCode="h:mm:ss">
-                  <c:v>0.00659722222222222</c:v>
-                </c:pt>
-                <c:pt idx="57" c:formatCode="h:mm:ss">
-                  <c:v>0.00671296296296296</c:v>
-                </c:pt>
-                <c:pt idx="58" c:formatCode="h:mm:ss">
-                  <c:v>0.0068287037037037</c:v>
-                </c:pt>
-                <c:pt idx="59" c:formatCode="h:mm:ss">
-                  <c:v>0.00694444444444444</c:v>
-                </c:pt>
-                <c:pt idx="60" c:formatCode="h:mm:ss">
-                  <c:v>0.00706018518518518</c:v>
-                </c:pt>
-                <c:pt idx="61" c:formatCode="h:mm:ss">
-                  <c:v>0.00717592592592593</c:v>
-                </c:pt>
-                <c:pt idx="62" c:formatCode="h:mm:ss">
-                  <c:v>0.00729166666666667</c:v>
-                </c:pt>
-                <c:pt idx="63" c:formatCode="h:mm:ss">
-                  <c:v>0.00740740740740741</c:v>
-                </c:pt>
-                <c:pt idx="64" c:formatCode="h:mm:ss">
-                  <c:v>0.00752314814814815</c:v>
-                </c:pt>
-                <c:pt idx="65" c:formatCode="h:mm:ss">
-                  <c:v>0.00763888888888889</c:v>
-                </c:pt>
-                <c:pt idx="66" c:formatCode="h:mm:ss">
-                  <c:v>0.00775462962962963</c:v>
-                </c:pt>
-                <c:pt idx="67" c:formatCode="h:mm:ss">
-                  <c:v>0.00787037037037037</c:v>
-                </c:pt>
-                <c:pt idx="68" c:formatCode="h:mm:ss">
-                  <c:v>0.00798611111111111</c:v>
-                </c:pt>
-                <c:pt idx="69" c:formatCode="h:mm:ss">
-                  <c:v>0.00810185185185185</c:v>
-                </c:pt>
-                <c:pt idx="70" c:formatCode="h:mm:ss">
-                  <c:v>0.00821759259259259</c:v>
-                </c:pt>
-                <c:pt idx="71" c:formatCode="h:mm:ss">
-                  <c:v>0.00833333333333333</c:v>
-                </c:pt>
-                <c:pt idx="72" c:formatCode="h:mm:ss">
-                  <c:v>0.00844907407407407</c:v>
-                </c:pt>
-                <c:pt idx="73" c:formatCode="h:mm:ss">
-                  <c:v>0.00856481481481482</c:v>
-                </c:pt>
-                <c:pt idx="74" c:formatCode="h:mm:ss">
-                  <c:v>0.00868055555555556</c:v>
-                </c:pt>
-                <c:pt idx="75" c:formatCode="h:mm:ss">
-                  <c:v>0.0087962962962963</c:v>
-                </c:pt>
-                <c:pt idx="76" c:formatCode="h:mm:ss">
-                  <c:v>0.00891203703703704</c:v>
-                </c:pt>
-                <c:pt idx="77" c:formatCode="h:mm:ss">
-                  <c:v>0.00902777777777778</c:v>
+                <c:pt idx="0">
+                  <c:v>1.15740740740741E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.31481481481481E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4722222222222202E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.6296296296296298E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.78703703703704E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.9444444444444404E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.1018518518518505E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.2592592592592596E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0416666666666699E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1574074074074099E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.27314814814815E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.38888888888889E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.5046296296296301E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.6203703703703701E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.7361111111111099E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.85185185185185E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.9675925925925898E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.0833333333333298E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.1990740740740699E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.3148148148148199E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.4305555555555599E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.5462962962963E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.66203703703704E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.7777777777777801E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.8935185185185201E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.0092592592592601E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.1250000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.2407407407407402E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.3564814814814798E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.4722222222222199E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.5879629629629599E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.7037037037036999E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.81944444444444E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.93518518518519E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.05092592592593E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.1666666666666701E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.2824074074074101E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.3981481481481502E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.5138888888888902E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.6296296296296302E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.7453703703703703E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.8611111111111103E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.9768518518518504E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.0925925925925904E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.2083333333333296E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.3240740740740696E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.4398148148148097E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.5555555555555601E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5.6712962962963001E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5.7870370370370402E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5.9027777777777802E-3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6.0185185185185203E-3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6.1342592592592603E-3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6.3657407407407404E-3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>6.4814814814814804E-3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>6.5972222222222196E-3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6.7129629629629596E-3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>6.8287037037036997E-3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6.9444444444444397E-3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>7.0601851851851798E-3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>7.1759259259259302E-3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>7.2916666666666703E-3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>7.4074074074074103E-3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>7.5231481481481503E-3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>7.6388888888888904E-3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>7.7546296296296304E-3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>7.8703703703703696E-3</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>7.9861111111111105E-3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>8.1018518518518497E-3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>8.2175925925925906E-3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>8.3333333333333297E-3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>8.4490740740740707E-3</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>8.5648148148148202E-3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>8.6805555555555594E-3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>8.7962962962963003E-3</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>8.9120370370370395E-3</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>9.0277777777777804E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1192,10 +574,10 @@
                   <c:v>5.14</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.61</c:v>
+                  <c:v>4.6100000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.06</c:v>
+                  <c:v>5.0599999999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>5.35</c:v>
@@ -1276,7 +658,7 @@
                   <c:v>8.39</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8.45</c:v>
+                  <c:v>8.4499999999999993</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>8.69</c:v>
@@ -1288,13 +670,13 @@
                   <c:v>8.57</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>8.63</c:v>
+                  <c:v>8.6300000000000008</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>8.99</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>9.03</c:v>
+                  <c:v>9.0299999999999994</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>8.69</c:v>
@@ -1312,19 +694,19 @@
                   <c:v>8.68</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>8.78</c:v>
+                  <c:v>8.7799999999999994</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>9.12</c:v>
+                  <c:v>9.1199999999999992</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>9.22</c:v>
+                  <c:v>9.2200000000000006</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>9.55</c:v>
+                  <c:v>9.5500000000000007</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>9.88</c:v>
+                  <c:v>9.8800000000000008</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>10.52</c:v>
@@ -1390,13 +772,13 @@
                   <c:v>9.64</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>9.28</c:v>
+                  <c:v>9.2799999999999994</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>8.94</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>9.04</c:v>
+                  <c:v>9.0399999999999991</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>9.08</c:v>
@@ -1411,6 +793,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-58DE-4DB8-8C05-99DEF06E0524}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1420,7 +807,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="0"/>
         <c:smooth val="0"/>
         <c:axId val="833076503"/>
         <c:axId val="151342004"/>
@@ -1432,6 +818,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="h:mm:ss" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1465,6 +852,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="151342004"/>
@@ -1523,6 +911,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="833076503"/>
@@ -1563,6 +952,7 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2130,7 +1520,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
@@ -2144,14 +1534,20 @@
       <xdr:row>91</xdr:row>
       <xdr:rowOff>149225</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="11991975" y="14048105"/>
-        <a:ext cx="4572000" cy="2743200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2445,21 +1841,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="O74" sqref="O74"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="W59" sqref="W59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2467,7 +1863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2585,9 +1981,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:35">
       <c r="A6" s="1">
-        <v>0.000115740740740741</v>
+        <v>1.15740740740741E-4</v>
       </c>
       <c r="B6" s="1">
         <v>0.923761574074074</v>
@@ -2638,12 +2034,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:35">
       <c r="A7" s="1">
-        <v>0.000231481481481481</v>
+        <v>2.31481481481481E-4</v>
       </c>
       <c r="B7" s="1">
-        <v>0.923877314814815</v>
+        <v>0.92387731481481505</v>
       </c>
       <c r="C7">
         <v>94</v>
@@ -2691,9 +2087,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:35">
       <c r="A8" s="1">
-        <v>0.000347222222222222</v>
+        <v>3.4722222222222202E-4</v>
       </c>
       <c r="B8" s="1">
         <v>0.923993055555556</v>
@@ -2747,12 +2143,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:35">
       <c r="A9" s="1">
-        <v>0.000462962962962963</v>
+        <v>4.6296296296296298E-4</v>
       </c>
       <c r="B9" s="1">
-        <v>0.924108796296296</v>
+        <v>0.92410879629629605</v>
       </c>
       <c r="C9">
         <v>88</v>
@@ -2800,9 +2196,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:35">
       <c r="A10" s="1">
-        <v>0.000578703703703704</v>
+        <v>5.78703703703704E-4</v>
       </c>
       <c r="B10" s="1">
         <v>0.924224537037037</v>
@@ -2853,12 +2249,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:35">
       <c r="A11" s="1">
-        <v>0.000694444444444444</v>
+        <v>6.9444444444444404E-4</v>
       </c>
       <c r="B11" s="1">
-        <v>0.924340277777778</v>
+        <v>0.92434027777777805</v>
       </c>
       <c r="C11">
         <v>85</v>
@@ -2906,9 +2302,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:35">
       <c r="A12" s="1">
-        <v>0.000810185185185185</v>
+        <v>8.1018518518518505E-4</v>
       </c>
       <c r="B12" s="1">
         <v>0.924456018518519</v>
@@ -2920,7 +2316,7 @@
         <v>57</v>
       </c>
       <c r="E12">
-        <v>4.61</v>
+        <v>4.6100000000000003</v>
       </c>
       <c r="F12">
         <v>2.91</v>
@@ -2959,12 +2355,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:35">
       <c r="A13" s="1">
-        <v>0.000925925925925926</v>
+        <v>9.2592592592592596E-4</v>
       </c>
       <c r="B13" s="1">
-        <v>0.924571759259259</v>
+        <v>0.92457175925925905</v>
       </c>
       <c r="C13">
         <v>87</v>
@@ -2973,7 +2369,7 @@
         <v>57</v>
       </c>
       <c r="E13">
-        <v>5.06</v>
+        <v>5.0599999999999996</v>
       </c>
       <c r="F13">
         <v>3.19</v>
@@ -3012,9 +2408,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:35">
       <c r="A14" s="1">
-        <v>0.00104166666666667</v>
+        <v>1.0416666666666699E-3</v>
       </c>
       <c r="B14" s="1">
         <v>0.9246875</v>
@@ -3065,12 +2461,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:35">
       <c r="A15" s="1">
-        <v>0.00115740740740741</v>
+        <v>1.1574074074074099E-3</v>
       </c>
       <c r="B15" s="1">
-        <v>0.924803240740741</v>
+        <v>0.92480324074074105</v>
       </c>
       <c r="C15">
         <v>91</v>
@@ -3118,9 +2514,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:35">
       <c r="A16" s="1">
-        <v>0.00127314814814815</v>
+        <v>1.27314814814815E-3</v>
       </c>
       <c r="B16" s="1">
         <v>0.924918981481481</v>
@@ -3171,12 +2567,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:35">
       <c r="A17" s="1">
-        <v>0.00138888888888889</v>
+        <v>1.38888888888889E-3</v>
       </c>
       <c r="B17" s="1">
-        <v>0.925034722222222</v>
+        <v>0.92503472222222205</v>
       </c>
       <c r="C17">
         <v>85</v>
@@ -3224,12 +2620,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:35">
       <c r="A18" s="1">
-        <v>0.00150462962962963</v>
+        <v>1.5046296296296301E-3</v>
       </c>
       <c r="B18" s="1">
-        <v>0.925150462962963</v>
+        <v>0.92515046296296299</v>
       </c>
       <c r="C18">
         <v>83</v>
@@ -3277,12 +2673,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:35">
       <c r="A19" s="1">
-        <v>0.00162037037037037</v>
+        <v>1.6203703703703701E-3</v>
       </c>
       <c r="B19" s="1">
-        <v>0.925266203703704</v>
+        <v>0.92526620370370405</v>
       </c>
       <c r="C19">
         <v>84</v>
@@ -3332,10 +2728,10 @@
     </row>
     <row r="20" spans="1:35">
       <c r="A20" s="1">
-        <v>0.00173611111111111</v>
+        <v>1.7361111111111099E-3</v>
       </c>
       <c r="B20" s="1">
-        <v>0.925381944444445</v>
+        <v>0.92538194444444499</v>
       </c>
       <c r="C20">
         <v>86</v>
@@ -3388,23 +2784,23 @@
       </c>
       <c r="V20" s="2">
         <f t="shared" ref="V20:AI20" si="0">AVERAGE(D6:D20)</f>
-        <v>59.7333333333333</v>
+        <v>59.733333333333334</v>
       </c>
       <c r="W20" s="2">
         <f t="shared" si="0"/>
-        <v>5.25666666666667</v>
+        <v>5.2566666666666668</v>
       </c>
       <c r="X20" s="2">
         <f t="shared" si="0"/>
-        <v>3.316</v>
+        <v>3.3159999999999998</v>
       </c>
       <c r="Y20" s="2">
         <f t="shared" si="0"/>
-        <v>67.7333333333333</v>
+        <v>67.733333333333334</v>
       </c>
       <c r="Z20" s="2">
         <f t="shared" si="0"/>
-        <v>416.466666666667</v>
+        <v>416.46666666666664</v>
       </c>
       <c r="AA20" s="2">
         <f t="shared" si="0"/>
@@ -3412,7 +2808,7 @@
       </c>
       <c r="AB20" s="2">
         <f t="shared" si="0"/>
-        <v>99.6666666666667</v>
+        <v>99.666666666666671</v>
       </c>
       <c r="AC20" s="2">
         <f t="shared" si="0"/>
@@ -3420,11 +2816,11 @@
       </c>
       <c r="AD20" s="2">
         <f t="shared" si="0"/>
-        <v>87.8666666666667</v>
+        <v>87.86666666666666</v>
       </c>
       <c r="AE20" s="2">
         <f t="shared" si="0"/>
-        <v>1116.53333333333</v>
+        <v>1116.5333333333333</v>
       </c>
       <c r="AF20" s="2">
         <f t="shared" si="0"/>
@@ -3432,23 +2828,23 @@
       </c>
       <c r="AG20" s="2">
         <f t="shared" si="0"/>
-        <v>3.34266666666667</v>
+        <v>3.3426666666666662</v>
       </c>
       <c r="AH20" s="2">
         <f t="shared" si="0"/>
-        <v>120.133333333333</v>
+        <v>120.13333333333334</v>
       </c>
       <c r="AI20" s="2">
         <f t="shared" si="0"/>
-        <v>43.1333333333333</v>
+        <v>43.133333333333333</v>
       </c>
     </row>
     <row r="21" spans="1:35">
       <c r="A21" s="1">
-        <v>0.00185185185185185</v>
+        <v>1.85185185185185E-3</v>
       </c>
       <c r="B21" s="1">
-        <v>0.925497685185185</v>
+        <v>0.92549768518518505</v>
       </c>
       <c r="C21">
         <v>90</v>
@@ -3513,10 +2909,10 @@
     </row>
     <row r="22" spans="1:35">
       <c r="A22" s="1">
-        <v>0.00196759259259259</v>
+        <v>1.9675925925925898E-3</v>
       </c>
       <c r="B22" s="1">
-        <v>0.925613425925926</v>
+        <v>0.92561342592592599</v>
       </c>
       <c r="C22">
         <v>89</v>
@@ -3581,10 +2977,10 @@
     </row>
     <row r="23" spans="1:35">
       <c r="A23" s="1">
-        <v>0.00208333333333333</v>
+        <v>2.0833333333333298E-3</v>
       </c>
       <c r="B23" s="1">
-        <v>0.925729166666667</v>
+        <v>0.92572916666666705</v>
       </c>
       <c r="C23">
         <v>90</v>
@@ -3649,10 +3045,10 @@
     </row>
     <row r="24" spans="1:35">
       <c r="A24" s="1">
-        <v>0.00219907407407407</v>
+        <v>2.1990740740740699E-3</v>
       </c>
       <c r="B24" s="1">
-        <v>0.925844907407407</v>
+        <v>0.92584490740740699</v>
       </c>
       <c r="C24">
         <v>91</v>
@@ -3717,10 +3113,10 @@
     </row>
     <row r="25" spans="1:35">
       <c r="A25" s="1">
-        <v>0.00231481481481482</v>
+        <v>2.3148148148148199E-3</v>
       </c>
       <c r="B25" s="1">
-        <v>0.925960648148148</v>
+        <v>0.92596064814814805</v>
       </c>
       <c r="C25">
         <v>95</v>
@@ -3785,10 +3181,10 @@
     </row>
     <row r="26" spans="1:35">
       <c r="A26" s="1">
-        <v>0.00243055555555556</v>
+        <v>2.4305555555555599E-3</v>
       </c>
       <c r="B26" s="1">
-        <v>0.926076388888889</v>
+        <v>0.92607638888888899</v>
       </c>
       <c r="C26">
         <v>90</v>
@@ -3853,10 +3249,10 @@
     </row>
     <row r="27" spans="1:35">
       <c r="A27" s="1">
-        <v>0.0025462962962963</v>
+        <v>2.5462962962963E-3</v>
       </c>
       <c r="B27" s="1">
-        <v>0.92619212962963</v>
+        <v>0.92619212962963005</v>
       </c>
       <c r="C27">
         <v>90</v>
@@ -3921,10 +3317,10 @@
     </row>
     <row r="28" spans="1:35">
       <c r="A28" s="1">
-        <v>0.00266203703703704</v>
+        <v>2.66203703703704E-3</v>
       </c>
       <c r="B28" s="1">
-        <v>0.92630787037037</v>
+        <v>0.92630787037036999</v>
       </c>
       <c r="C28">
         <v>101</v>
@@ -3936,7 +3332,7 @@
         <v>6.43</v>
       </c>
       <c r="F28">
-        <v>4.06</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="G28">
         <v>68</v>
@@ -3989,10 +3385,10 @@
     </row>
     <row r="29" spans="1:35">
       <c r="A29" s="1">
-        <v>0.00277777777777778</v>
+        <v>2.7777777777777801E-3</v>
       </c>
       <c r="B29" s="1">
-        <v>0.926423611111111</v>
+        <v>0.92642361111111104</v>
       </c>
       <c r="C29">
         <v>103</v>
@@ -4060,10 +3456,10 @@
     </row>
     <row r="30" spans="1:35">
       <c r="A30" s="1">
-        <v>0.00289351851851852</v>
+        <v>2.8935185185185201E-3</v>
       </c>
       <c r="B30" s="1">
-        <v>0.926539351851852</v>
+        <v>0.92653935185185199</v>
       </c>
       <c r="C30">
         <v>109</v>
@@ -4075,7 +3471,7 @@
         <v>7.75</v>
       </c>
       <c r="F30">
-        <v>4.89</v>
+        <v>4.8899999999999997</v>
       </c>
       <c r="G30">
         <v>72</v>
@@ -4128,10 +3524,10 @@
     </row>
     <row r="31" spans="1:35">
       <c r="A31" s="1">
-        <v>0.00300925925925926</v>
+        <v>3.0092592592592601E-3</v>
       </c>
       <c r="B31" s="1">
-        <v>0.926655092592593</v>
+        <v>0.92665509259259304</v>
       </c>
       <c r="C31">
         <v>113</v>
@@ -4196,10 +3592,10 @@
     </row>
     <row r="32" spans="1:35">
       <c r="A32" s="1">
-        <v>0.003125</v>
+        <v>3.1250000000000002E-3</v>
       </c>
       <c r="B32" s="1">
-        <v>0.926770833333333</v>
+        <v>0.92677083333333299</v>
       </c>
       <c r="C32">
         <v>113</v>
@@ -4264,10 +3660,10 @@
     </row>
     <row r="33" spans="1:35">
       <c r="A33" s="1">
-        <v>0.00324074074074074</v>
+        <v>3.2407407407407402E-3</v>
       </c>
       <c r="B33" s="1">
-        <v>0.926886574074074</v>
+        <v>0.92688657407407404</v>
       </c>
       <c r="C33">
         <v>116</v>
@@ -4332,10 +3728,10 @@
     </row>
     <row r="34" spans="1:35">
       <c r="A34" s="1">
-        <v>0.00335648148148148</v>
+        <v>3.3564814814814798E-3</v>
       </c>
       <c r="B34" s="1">
-        <v>0.927002314814815</v>
+        <v>0.92700231481481499</v>
       </c>
       <c r="C34">
         <v>114</v>
@@ -4400,10 +3796,10 @@
     </row>
     <row r="35" spans="1:35">
       <c r="A35" s="1">
-        <v>0.00347222222222222</v>
+        <v>3.4722222222222199E-3</v>
       </c>
       <c r="B35" s="1">
-        <v>0.927118055555555</v>
+        <v>0.92711805555555504</v>
       </c>
       <c r="C35">
         <v>116</v>
@@ -4468,10 +3864,10 @@
     </row>
     <row r="36" spans="1:35">
       <c r="A36" s="1">
-        <v>0.00358796296296296</v>
+        <v>3.5879629629629599E-3</v>
       </c>
       <c r="B36" s="1">
-        <v>0.927233796296296</v>
+        <v>0.92723379629629599</v>
       </c>
       <c r="C36">
         <v>114</v>
@@ -4536,10 +3932,10 @@
     </row>
     <row r="37" spans="1:35">
       <c r="A37" s="1">
-        <v>0.0037037037037037</v>
+        <v>3.7037037037036999E-3</v>
       </c>
       <c r="B37" s="1">
-        <v>0.927349537037037</v>
+        <v>0.92734953703703704</v>
       </c>
       <c r="C37">
         <v>111</v>
@@ -4604,10 +4000,10 @@
     </row>
     <row r="38" spans="1:35">
       <c r="A38" s="1">
-        <v>0.00381944444444444</v>
+        <v>3.81944444444444E-3</v>
       </c>
       <c r="B38" s="1">
-        <v>0.927465277777778</v>
+        <v>0.92746527777777799</v>
       </c>
       <c r="C38">
         <v>116</v>
@@ -4672,10 +4068,10 @@
     </row>
     <row r="39" spans="1:35">
       <c r="A39" s="1">
-        <v>0.00393518518518519</v>
+        <v>3.93518518518519E-3</v>
       </c>
       <c r="B39" s="1">
-        <v>0.927581018518519</v>
+        <v>0.92758101851851904</v>
       </c>
       <c r="C39">
         <v>115</v>
@@ -4740,10 +4136,10 @@
     </row>
     <row r="40" spans="1:35">
       <c r="A40" s="1">
-        <v>0.00405092592592593</v>
+        <v>4.05092592592593E-3</v>
       </c>
       <c r="B40" s="1">
-        <v>0.927696759259259</v>
+        <v>0.92769675925925899</v>
       </c>
       <c r="C40">
         <v>115</v>
@@ -4752,7 +4148,7 @@
         <v>72</v>
       </c>
       <c r="E40">
-        <v>8.45</v>
+        <v>8.4499999999999993</v>
       </c>
       <c r="F40">
         <v>5.33</v>
@@ -4808,10 +4204,10 @@
     </row>
     <row r="41" spans="1:35">
       <c r="A41" s="1">
-        <v>0.00416666666666667</v>
+        <v>4.1666666666666701E-3</v>
       </c>
       <c r="B41" s="1">
-        <v>0.9278125</v>
+        <v>0.92781250000000004</v>
       </c>
       <c r="C41">
         <v>116</v>
@@ -4876,10 +4272,10 @@
     </row>
     <row r="42" spans="1:35">
       <c r="A42" s="1">
-        <v>0.00428240740740741</v>
+        <v>4.2824074074074101E-3</v>
       </c>
       <c r="B42" s="1">
-        <v>0.927928240740741</v>
+        <v>0.92792824074074098</v>
       </c>
       <c r="C42">
         <v>119</v>
@@ -4944,10 +4340,10 @@
     </row>
     <row r="43" spans="1:35">
       <c r="A43" s="1">
-        <v>0.00439814814814815</v>
+        <v>4.3981481481481502E-3</v>
       </c>
       <c r="B43" s="1">
-        <v>0.928043981481481</v>
+        <v>0.92804398148148104</v>
       </c>
       <c r="C43">
         <v>117</v>
@@ -5012,10 +4408,10 @@
     </row>
     <row r="44" spans="1:35">
       <c r="A44" s="1">
-        <v>0.00451388888888889</v>
+        <v>4.5138888888888902E-3</v>
       </c>
       <c r="B44" s="1">
-        <v>0.928159722222222</v>
+        <v>0.92815972222222198</v>
       </c>
       <c r="C44">
         <v>118</v>
@@ -5024,7 +4420,7 @@
         <v>73</v>
       </c>
       <c r="E44">
-        <v>8.63</v>
+        <v>8.6300000000000008</v>
       </c>
       <c r="F44">
         <v>5.44</v>
@@ -5080,10 +4476,10 @@
     </row>
     <row r="45" spans="1:35">
       <c r="A45" s="1">
-        <v>0.00462962962962963</v>
+        <v>4.6296296296296302E-3</v>
       </c>
       <c r="B45" s="1">
-        <v>0.928275462962963</v>
+        <v>0.92827546296296304</v>
       </c>
       <c r="C45">
         <v>120</v>
@@ -5148,10 +4544,10 @@
     </row>
     <row r="46" spans="1:35">
       <c r="A46" s="1">
-        <v>0.00474537037037037</v>
+        <v>4.7453703703703703E-3</v>
       </c>
       <c r="B46" s="1">
-        <v>0.928391203703704</v>
+        <v>0.92839120370370398</v>
       </c>
       <c r="C46">
         <v>122</v>
@@ -5160,7 +4556,7 @@
         <v>73</v>
       </c>
       <c r="E46">
-        <v>9.03</v>
+        <v>9.0299999999999994</v>
       </c>
       <c r="F46">
         <v>5.69</v>
@@ -5216,10 +4612,10 @@
     </row>
     <row r="47" spans="1:35">
       <c r="A47" s="1">
-        <v>0.00486111111111111</v>
+        <v>4.8611111111111103E-3</v>
       </c>
       <c r="B47" s="1">
-        <v>0.928506944444444</v>
+        <v>0.92850694444444404</v>
       </c>
       <c r="C47">
         <v>117</v>
@@ -5284,10 +4680,10 @@
     </row>
     <row r="48" spans="1:35">
       <c r="A48" s="1">
-        <v>0.00497685185185185</v>
+        <v>4.9768518518518504E-3</v>
       </c>
       <c r="B48" s="1">
-        <v>0.928622685185185</v>
+        <v>0.92862268518518498</v>
       </c>
       <c r="C48">
         <v>114</v>
@@ -5352,10 +4748,10 @@
     </row>
     <row r="49" spans="1:35">
       <c r="A49" s="1">
-        <v>0.00509259259259259</v>
+        <v>5.0925925925925904E-3</v>
       </c>
       <c r="B49" s="1">
-        <v>0.928738425925926</v>
+        <v>0.92873842592592604</v>
       </c>
       <c r="C49">
         <v>117</v>
@@ -5420,10 +4816,10 @@
     </row>
     <row r="50" spans="1:35">
       <c r="A50" s="1">
-        <v>0.00520833333333333</v>
+        <v>5.2083333333333296E-3</v>
       </c>
       <c r="B50" s="1">
-        <v>0.928854166666667</v>
+        <v>0.92885416666666698</v>
       </c>
       <c r="C50">
         <v>116</v>
@@ -5488,10 +4884,10 @@
     </row>
     <row r="51" spans="1:35">
       <c r="A51" s="1">
-        <v>0.00532407407407407</v>
+        <v>5.3240740740740696E-3</v>
       </c>
       <c r="B51" s="1">
-        <v>0.928969907407407</v>
+        <v>0.92896990740740704</v>
       </c>
       <c r="C51">
         <v>116</v>
@@ -5559,10 +4955,10 @@
     </row>
     <row r="52" spans="1:35">
       <c r="A52" s="1">
-        <v>0.00543981481481481</v>
+        <v>5.4398148148148097E-3</v>
       </c>
       <c r="B52" s="1">
-        <v>0.929085648148148</v>
+        <v>0.92908564814814798</v>
       </c>
       <c r="C52">
         <v>118</v>
@@ -5571,7 +4967,7 @@
         <v>74</v>
       </c>
       <c r="E52">
-        <v>8.78</v>
+        <v>8.7799999999999994</v>
       </c>
       <c r="F52">
         <v>5.54</v>
@@ -5627,10 +5023,10 @@
     </row>
     <row r="53" spans="1:35">
       <c r="A53" s="1">
-        <v>0.00555555555555556</v>
+        <v>5.5555555555555601E-3</v>
       </c>
       <c r="B53" s="1">
-        <v>0.929201388888889</v>
+        <v>0.92920138888888903</v>
       </c>
       <c r="C53">
         <v>122</v>
@@ -5639,7 +5035,7 @@
         <v>74</v>
       </c>
       <c r="E53">
-        <v>9.12</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="F53">
         <v>5.75</v>
@@ -5695,10 +5091,10 @@
     </row>
     <row r="54" spans="1:35">
       <c r="A54" s="1">
-        <v>0.0056712962962963</v>
+        <v>5.6712962962963001E-3</v>
       </c>
       <c r="B54" s="1">
-        <v>0.92931712962963</v>
+        <v>0.92931712962962998</v>
       </c>
       <c r="C54">
         <v>124</v>
@@ -5707,7 +5103,7 @@
         <v>73</v>
       </c>
       <c r="E54">
-        <v>9.22</v>
+        <v>9.2200000000000006</v>
       </c>
       <c r="F54">
         <v>5.81</v>
@@ -5763,10 +5159,10 @@
     </row>
     <row r="55" spans="1:35">
       <c r="A55" s="1">
-        <v>0.00578703703703704</v>
+        <v>5.7870370370370402E-3</v>
       </c>
       <c r="B55" s="1">
-        <v>0.92943287037037</v>
+        <v>0.92943287037037003</v>
       </c>
       <c r="C55">
         <v>127</v>
@@ -5775,7 +5171,7 @@
         <v>74</v>
       </c>
       <c r="E55">
-        <v>9.55</v>
+        <v>9.5500000000000007</v>
       </c>
       <c r="F55">
         <v>6.03</v>
@@ -5831,10 +5227,10 @@
     </row>
     <row r="56" spans="1:35">
       <c r="A56" s="1">
-        <v>0.00590277777777778</v>
+        <v>5.9027777777777802E-3</v>
       </c>
       <c r="B56" s="1">
-        <v>0.929548611111111</v>
+        <v>0.92954861111111098</v>
       </c>
       <c r="C56">
         <v>129</v>
@@ -5843,7 +5239,7 @@
         <v>76</v>
       </c>
       <c r="E56">
-        <v>9.88</v>
+        <v>9.8800000000000008</v>
       </c>
       <c r="F56">
         <v>6.23</v>
@@ -5899,10 +5295,10 @@
     </row>
     <row r="57" spans="1:35">
       <c r="A57" s="1">
-        <v>0.00601851851851852</v>
+        <v>6.0185185185185203E-3</v>
       </c>
       <c r="B57" s="1">
-        <v>0.929664351851852</v>
+        <v>0.92966435185185203</v>
       </c>
       <c r="C57">
         <v>135</v>
@@ -5967,10 +5363,10 @@
     </row>
     <row r="58" spans="1:35">
       <c r="A58" s="1">
-        <v>0.00613425925925926</v>
+        <v>6.1342592592592603E-3</v>
       </c>
       <c r="B58" s="1">
-        <v>0.929780092592593</v>
+        <v>0.92978009259259298</v>
       </c>
       <c r="C58">
         <v>140</v>
@@ -6035,10 +5431,10 @@
     </row>
     <row r="59" spans="1:35">
       <c r="A59" s="1">
-        <v>0.00625</v>
+        <v>6.2500000000000003E-3</v>
       </c>
       <c r="B59" s="1">
-        <v>0.929895833333333</v>
+        <v>0.92989583333333303</v>
       </c>
       <c r="C59">
         <v>143</v>
@@ -6103,10 +5499,10 @@
     </row>
     <row r="60" spans="1:35">
       <c r="A60" s="1">
-        <v>0.00636574074074074</v>
+        <v>6.3657407407407404E-3</v>
       </c>
       <c r="B60" s="1">
-        <v>0.930011574074074</v>
+        <v>0.93001157407407398</v>
       </c>
       <c r="C60">
         <v>135</v>
@@ -6171,10 +5567,10 @@
     </row>
     <row r="61" spans="1:35">
       <c r="A61" s="1">
-        <v>0.00648148148148148</v>
+        <v>6.4814814814814804E-3</v>
       </c>
       <c r="B61" s="1">
-        <v>0.930127314814815</v>
+        <v>0.93012731481481503</v>
       </c>
       <c r="C61">
         <v>132</v>
@@ -6239,10 +5635,10 @@
     </row>
     <row r="62" spans="1:35">
       <c r="A62" s="1">
-        <v>0.00659722222222222</v>
+        <v>6.5972222222222196E-3</v>
       </c>
       <c r="B62" s="1">
-        <v>0.930243055555556</v>
+        <v>0.93024305555555598</v>
       </c>
       <c r="C62">
         <v>135</v>
@@ -6294,7 +5690,7 @@
       </c>
       <c r="U62" s="2">
         <f>AVERAGE(C53:C62)</f>
-        <v>132.2</v>
+        <v>132.19999999999999</v>
       </c>
       <c r="V62" s="2">
         <f t="shared" ref="V62:AI62" si="1">AVERAGE(D53:D62)</f>
@@ -6302,15 +5698,15 @@
       </c>
       <c r="W62" s="2">
         <f t="shared" si="1"/>
-        <v>10.193</v>
+        <v>10.193000000000001</v>
       </c>
       <c r="X62" s="2">
         <f t="shared" si="1"/>
-        <v>6.43</v>
+        <v>6.4300000000000015</v>
       </c>
       <c r="Y62" s="2">
         <f t="shared" si="1"/>
-        <v>76.1</v>
+        <v>76.099999999999994</v>
       </c>
       <c r="Z62" s="2">
         <f t="shared" si="1"/>
@@ -6342,7 +5738,7 @@
       </c>
       <c r="AG62" s="2">
         <f t="shared" si="1"/>
-        <v>6.481</v>
+        <v>6.4809999999999999</v>
       </c>
       <c r="AH62" s="2">
         <f t="shared" si="1"/>
@@ -6355,10 +5751,10 @@
     </row>
     <row r="63" spans="1:35">
       <c r="A63" s="1">
-        <v>0.00671296296296296</v>
+        <v>6.7129629629629596E-3</v>
       </c>
       <c r="B63" s="1">
-        <v>0.930358796296296</v>
+        <v>0.93035879629629603</v>
       </c>
       <c r="C63">
         <v>138</v>
@@ -6426,10 +5822,10 @@
     </row>
     <row r="64" spans="1:35">
       <c r="A64" s="1">
-        <v>0.0068287037037037</v>
+        <v>6.8287037037036997E-3</v>
       </c>
       <c r="B64" s="1">
-        <v>0.930474537037037</v>
+        <v>0.93047453703703698</v>
       </c>
       <c r="C64">
         <v>137</v>
@@ -6494,10 +5890,10 @@
     </row>
     <row r="65" spans="1:35">
       <c r="A65" s="1">
-        <v>0.00694444444444444</v>
+        <v>6.9444444444444397E-3</v>
       </c>
       <c r="B65" s="1">
-        <v>0.930590277777778</v>
+        <v>0.93059027777777803</v>
       </c>
       <c r="C65">
         <v>134</v>
@@ -6562,10 +5958,10 @@
     </row>
     <row r="66" spans="1:35">
       <c r="A66" s="1">
-        <v>0.00706018518518518</v>
+        <v>7.0601851851851798E-3</v>
       </c>
       <c r="B66" s="1">
-        <v>0.930706018518519</v>
+        <v>0.93070601851851897</v>
       </c>
       <c r="C66">
         <v>138</v>
@@ -6630,10 +6026,10 @@
     </row>
     <row r="67" spans="1:35">
       <c r="A67" s="1">
-        <v>0.00717592592592593</v>
+        <v>7.1759259259259302E-3</v>
       </c>
       <c r="B67" s="1">
-        <v>0.930821759259259</v>
+        <v>0.93082175925925903</v>
       </c>
       <c r="C67">
         <v>142</v>
@@ -6698,10 +6094,10 @@
     </row>
     <row r="68" spans="1:35">
       <c r="A68" s="1">
-        <v>0.00729166666666667</v>
+        <v>7.2916666666666703E-3</v>
       </c>
       <c r="B68" s="1">
-        <v>0.9309375</v>
+        <v>0.93093749999999997</v>
       </c>
       <c r="C68">
         <v>145</v>
@@ -6765,7 +6161,7 @@
       </c>
       <c r="X68" s="2">
         <f t="shared" si="2"/>
-        <v>6.6575</v>
+        <v>6.6574999999999998</v>
       </c>
       <c r="Y68" s="2">
         <f t="shared" si="2"/>
@@ -6801,7 +6197,7 @@
       </c>
       <c r="AG68" s="2">
         <f t="shared" si="2"/>
-        <v>6.7075</v>
+        <v>6.7074999999999996</v>
       </c>
       <c r="AH68" s="2">
         <f t="shared" si="2"/>
@@ -6814,10 +6210,10 @@
     </row>
     <row r="69" spans="1:35">
       <c r="A69" s="1">
-        <v>0.00740740740740741</v>
+        <v>7.4074074074074103E-3</v>
       </c>
       <c r="B69" s="1">
-        <v>0.931053240740741</v>
+        <v>0.93105324074074103</v>
       </c>
       <c r="C69">
         <v>149</v>
@@ -6882,10 +6278,10 @@
     </row>
     <row r="70" spans="1:35">
       <c r="A70" s="1">
-        <v>0.00752314814814815</v>
+        <v>7.5231481481481503E-3</v>
       </c>
       <c r="B70" s="1">
-        <v>0.931168981481481</v>
+        <v>0.93116898148148097</v>
       </c>
       <c r="C70">
         <v>150</v>
@@ -6950,10 +6346,10 @@
     </row>
     <row r="71" spans="1:35">
       <c r="A71" s="1">
-        <v>0.00763888888888889</v>
+        <v>7.6388888888888904E-3</v>
       </c>
       <c r="B71" s="1">
-        <v>0.931284722222222</v>
+        <v>0.93128472222222203</v>
       </c>
       <c r="C71">
         <v>155</v>
@@ -7021,10 +6417,10 @@
     </row>
     <row r="72" spans="1:35">
       <c r="A72" s="1">
-        <v>0.00775462962962963</v>
+        <v>7.7546296296296304E-3</v>
       </c>
       <c r="B72" s="1">
-        <v>0.931400462962963</v>
+        <v>0.93140046296296297</v>
       </c>
       <c r="C72">
         <v>155</v>
@@ -7089,10 +6485,10 @@
     </row>
     <row r="73" spans="1:35">
       <c r="A73" s="1">
-        <v>0.00787037037037037</v>
+        <v>7.8703703703703696E-3</v>
       </c>
       <c r="B73" s="1">
-        <v>0.931516203703704</v>
+        <v>0.93151620370370403</v>
       </c>
       <c r="C73">
         <v>154</v>
@@ -7160,10 +6556,10 @@
     </row>
     <row r="74" spans="1:35">
       <c r="A74" s="1">
-        <v>0.00798611111111111</v>
+        <v>7.9861111111111105E-3</v>
       </c>
       <c r="B74" s="1">
-        <v>0.931631944444444</v>
+        <v>0.93163194444444397</v>
       </c>
       <c r="C74">
         <v>147</v>
@@ -7219,12 +6615,12 @@
         <v>72.25</v>
       </c>
       <c r="W74" s="2">
-        <f t="shared" si="3"/>
-        <v>11.12</v>
+        <f>AVERAGE(E71:E73)</f>
+        <v>11.256666666666666</v>
       </c>
       <c r="X74" s="2">
         <f t="shared" si="3"/>
-        <v>7.0175</v>
+        <v>7.0175000000000001</v>
       </c>
       <c r="Y74" s="2">
         <f t="shared" si="3"/>
@@ -7260,7 +6656,7 @@
       </c>
       <c r="AG74" s="2">
         <f t="shared" si="3"/>
-        <v>7.07</v>
+        <v>7.0699999999999994</v>
       </c>
       <c r="AH74" s="2">
         <f t="shared" si="3"/>
@@ -7271,12 +6667,12 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="75" spans="1:17">
+    <row r="75" spans="1:35">
       <c r="A75" s="1">
-        <v>0.00810185185185185</v>
+        <v>8.1018518518518497E-3</v>
       </c>
       <c r="B75" s="1">
-        <v>0.931747685185185</v>
+        <v>0.93174768518518503</v>
       </c>
       <c r="C75">
         <v>141</v>
@@ -7324,12 +6720,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="76" spans="1:17">
+    <row r="76" spans="1:35">
       <c r="A76" s="1">
-        <v>0.00821759259259259</v>
+        <v>8.2175925925925906E-3</v>
       </c>
       <c r="B76" s="1">
-        <v>0.931863425925926</v>
+        <v>0.93186342592592597</v>
       </c>
       <c r="C76">
         <v>141</v>
@@ -7377,12 +6773,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="77" spans="1:17">
+    <row r="77" spans="1:35">
       <c r="A77" s="1">
-        <v>0.00833333333333333</v>
+        <v>8.3333333333333297E-3</v>
       </c>
       <c r="B77" s="1">
-        <v>0.931979166666667</v>
+        <v>0.93197916666666702</v>
       </c>
       <c r="C77">
         <v>137</v>
@@ -7430,12 +6826,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="78" spans="1:17">
+    <row r="78" spans="1:35">
       <c r="A78" s="1">
-        <v>0.00844907407407407</v>
+        <v>8.4490740740740707E-3</v>
       </c>
       <c r="B78" s="1">
-        <v>0.932094907407407</v>
+        <v>0.93209490740740697</v>
       </c>
       <c r="C78">
         <v>129</v>
@@ -7444,7 +6840,7 @@
         <v>71</v>
       </c>
       <c r="E78">
-        <v>9.28</v>
+        <v>9.2799999999999994</v>
       </c>
       <c r="F78">
         <v>5.85</v>
@@ -7483,12 +6879,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="79" spans="1:17">
+    <row r="79" spans="1:35">
       <c r="A79" s="1">
-        <v>0.00856481481481482</v>
+        <v>8.5648148148148202E-3</v>
       </c>
       <c r="B79" s="1">
-        <v>0.932210648148148</v>
+        <v>0.93221064814814802</v>
       </c>
       <c r="C79">
         <v>124</v>
@@ -7536,12 +6932,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="80" spans="1:17">
+    <row r="80" spans="1:35">
       <c r="A80" s="1">
-        <v>0.00868055555555556</v>
+        <v>8.6805555555555594E-3</v>
       </c>
       <c r="B80" s="1">
-        <v>0.932326388888889</v>
+        <v>0.93232638888888897</v>
       </c>
       <c r="C80">
         <v>122</v>
@@ -7550,7 +6946,7 @@
         <v>73</v>
       </c>
       <c r="E80">
-        <v>9.04</v>
+        <v>9.0399999999999991</v>
       </c>
       <c r="F80">
         <v>5.7</v>
@@ -7591,10 +6987,10 @@
     </row>
     <row r="81" spans="1:17">
       <c r="A81" s="1">
-        <v>0.0087962962962963</v>
+        <v>8.7962962962963003E-3</v>
       </c>
       <c r="B81" s="1">
-        <v>0.93244212962963</v>
+        <v>0.93244212962963002</v>
       </c>
       <c r="C81">
         <v>122</v>
@@ -7644,10 +7040,10 @@
     </row>
     <row r="82" spans="1:17">
       <c r="A82" s="1">
-        <v>0.00891203703703704</v>
+        <v>8.9120370370370395E-3</v>
       </c>
       <c r="B82" s="1">
-        <v>0.93255787037037</v>
+        <v>0.93255787037036997</v>
       </c>
       <c r="C82">
         <v>115</v>
@@ -7697,10 +7093,10 @@
     </row>
     <row r="83" spans="1:17">
       <c r="A83" s="1">
-        <v>0.00902777777777778</v>
+        <v>9.0277777777777804E-3</v>
       </c>
       <c r="B83" s="1">
-        <v>0.932673611111111</v>
+        <v>0.93267361111111102</v>
       </c>
       <c r="C83">
         <v>111</v>
@@ -7748,46 +7144,37 @@
         <v>39</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:17">
       <c r="A85" t="s">
         <v>47</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>